--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>678192.0072257413</v>
+        <v>673876.0091217496</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21939500.90033927</v>
+        <v>21939500.90033928</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7083200.67145812</v>
+        <v>7083200.671458119</v>
       </c>
     </row>
     <row r="9">
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8.056175065232777</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="G3" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>9.146429456440488</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,70 +822,70 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>8.056175065232779</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="G4" t="n">
-        <v>8.056175065232779</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8.056175065232777</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>9.146429456440488</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>8.056175065232779</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,49 +1074,49 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>8.056175065232779</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>8.056175065232777</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>9.146429456440488</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>9.146429456440488</v>
       </c>
       <c r="I9" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>8.056175065232777</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8.056175065232777</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="S10" t="n">
+      <c r="Y10" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="T10" t="n">
-        <v>8.056175065232779</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0001258259135</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>402.6557434633873</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T11" t="n">
-        <v>177.4614007435742</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U11" t="n">
         <v>254.3310661988683</v>
@@ -1432,7 +1432,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>104.8580049901195</v>
       </c>
       <c r="H12" t="n">
-        <v>59.78106160549741</v>
+        <v>59.78106160549724</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>153.4670072949422</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3074207420657</v>
+        <v>195.3074207420662</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>24.51681287074736</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.6873688583576</v>
       </c>
       <c r="H13" t="n">
-        <v>140.1938633459013</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>95.08063852422106</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1609,25 +1609,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.50225315837068</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H14" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>299.0442770398438</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>10.0825022787731</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1785,7 +1785,7 @@
         <v>140.1938633459013</v>
       </c>
       <c r="I16" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>69.56974011492882</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H17" t="n">
-        <v>287.4678909265675</v>
+        <v>274.7832875063037</v>
       </c>
       <c r="I17" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>55.95447609193819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1976,7 +1976,7 @@
         <v>87.18008865358075</v>
       </c>
       <c r="T18" t="n">
-        <v>153.4670072949422</v>
+        <v>153.4670072949423</v>
       </c>
       <c r="U18" t="n">
         <v>195.3074207420657</v>
@@ -2004,22 +2004,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.6873688583576</v>
       </c>
       <c r="H19" t="n">
-        <v>54.41881701417889</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3483097829142</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9215922535905</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>217.8720384101306</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>88.68920227461291</v>
       </c>
       <c r="T20" t="n">
-        <v>98.04289443680317</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>34.40180665069684</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.6873688583576</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.04329873116436</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>169.0085450628485</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3483097829142</v>
+        <v>227.5788764926153</v>
       </c>
       <c r="U22" t="n">
         <v>279.9215922535905</v>
@@ -2304,7 +2304,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>251.0963797525309</v>
       </c>
       <c r="H23" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>88.68920227461291</v>
       </c>
       <c r="T23" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>318.0059543091114</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>12.0168149546401</v>
       </c>
       <c r="G25" t="n">
         <v>164.6873688583576</v>
       </c>
       <c r="H25" t="n">
-        <v>140.1938633459013</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>233.3483097829142</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V25" t="n">
-        <v>13.60464730294644</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>87.66567744111775</v>
       </c>
       <c r="U26" t="n">
-        <v>52.9997009139337</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.6873688583576</v>
@@ -2733,7 +2733,7 @@
         <v>140.1938633459013</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>66.81594193975042</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U28" t="n">
         <v>279.9215922535905</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>158.461528203836</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>168.4947075001702</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>359.6783836316033</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.1938633459013</v>
       </c>
       <c r="I31" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>144.8146145388362</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>174.3352433978539</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,25 +3031,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.7855820271444</v>
+        <v>384.6588492716548</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.6873688583576</v>
       </c>
       <c r="H34" t="n">
-        <v>140.1938633459013</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>88.40227130842214</v>
+        <v>12.0168149546401</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>169.0085450628485</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V34" t="n">
-        <v>202.5739072016242</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3274,19 +3274,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>396.3055806250571</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>166.4755718890168</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -3435,10 +3435,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>94.11179380104875</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.1938633459013</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>169.0085450628485</v>
+        <v>127.6272507274208</v>
       </c>
       <c r="T37" t="n">
         <v>233.3483097829142</v>
@@ -3486,10 +3486,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3511,13 +3511,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>340.6992604225061</v>
+        <v>36.63825950621371</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475954</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.6873688583576</v>
       </c>
       <c r="H40" t="n">
-        <v>140.1938633459013</v>
+        <v>117.2405350460983</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>169.0085450628485</v>
@@ -3717,7 +3717,7 @@
         <v>233.3483097829142</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0927410641595</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>31.05426720552335</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>40.71610496664155</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>34.28273503556489</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3915,10 +3915,10 @@
         <v>164.6873688583576</v>
       </c>
       <c r="H43" t="n">
-        <v>92.78634259497927</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I43" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>169.0085450628485</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>107.4271659462087</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>364.3743887820978</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4140,10 +4140,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>20.27557869228527</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4152,7 +4152,7 @@
         <v>164.6873688583576</v>
       </c>
       <c r="H46" t="n">
-        <v>140.1938633459013</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>88.40227130842214</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>238.5782851777772</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4312,7 +4312,7 @@
         <v>24.32075555535073</v>
       </c>
       <c r="D2" t="n">
-        <v>23.89722968881533</v>
+        <v>23.89722968881534</v>
       </c>
       <c r="E2" t="n">
         <v>14.65841205604716</v>
@@ -4330,28 +4330,28 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J2" t="n">
-        <v>9.420822340133704</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="K2" t="n">
-        <v>9.420822340133704</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="L2" t="n">
         <v>9.420822340133704</v>
       </c>
       <c r="M2" t="n">
-        <v>9.420822340133704</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="N2" t="n">
-        <v>9.420822340133704</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="O2" t="n">
-        <v>18.47578750200979</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="P2" t="n">
         <v>27.53075266388587</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="R2" t="n">
         <v>36.58571782576195</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="C3" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="D3" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="E3" t="n">
-        <v>27.34690019299378</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="F3" t="n">
-        <v>27.34690019299378</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="G3" t="n">
         <v>19.20934962205158</v>
@@ -4409,28 +4409,28 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J3" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="K3" t="n">
         <v>9.420822340133704</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>9.420822340133704</v>
+      </c>
+      <c r="M3" t="n">
         <v>18.47578750200979</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>18.47578750200979</v>
+      </c>
+      <c r="O3" t="n">
+        <v>18.47578750200979</v>
+      </c>
+      <c r="P3" t="n">
+        <v>18.47578750200979</v>
+      </c>
+      <c r="Q3" t="n">
         <v>27.53075266388587</v>
-      </c>
-      <c r="M3" t="n">
-        <v>27.53075266388587</v>
-      </c>
-      <c r="N3" t="n">
-        <v>27.53075266388587</v>
-      </c>
-      <c r="O3" t="n">
-        <v>36.58571782576195</v>
-      </c>
-      <c r="P3" t="n">
-        <v>36.58571782576195</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>36.58571782576195</v>
       </c>
       <c r="R3" t="n">
         <v>36.58571782576195</v>
@@ -4454,7 +4454,7 @@
         <v>36.58571782576195</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.34690019299378</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="C4" t="n">
-        <v>27.34690019299378</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="D4" t="n">
-        <v>27.34690019299378</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="E4" t="n">
-        <v>18.10808256022561</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="F4" t="n">
-        <v>8.86926492745744</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="I4" t="n">
         <v>0.7317143565152391</v>
@@ -4491,10 +4491,10 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="K4" t="n">
-        <v>9.420822340133704</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="L4" t="n">
-        <v>9.420822340133704</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="M4" t="n">
         <v>18.47578750200979</v>
@@ -4503,7 +4503,7 @@
         <v>27.53075266388587</v>
       </c>
       <c r="O4" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="P4" t="n">
         <v>36.58571782576195</v>
@@ -4515,10 +4515,10 @@
         <v>36.58571782576195</v>
       </c>
       <c r="S4" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="T4" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="U4" t="n">
         <v>27.34690019299378</v>
@@ -4533,7 +4533,7 @@
         <v>27.34690019299378</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.34690019299378</v>
+        <v>18.10808256022561</v>
       </c>
     </row>
     <row r="5">
@@ -4567,28 +4567,28 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K5" t="n">
-        <v>9.420822340133704</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="L5" t="n">
-        <v>18.47578750200979</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="M5" t="n">
-        <v>27.53075266388587</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="N5" t="n">
-        <v>27.53075266388587</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="O5" t="n">
-        <v>27.53075266388587</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="P5" t="n">
         <v>27.53075266388587</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="R5" t="n">
         <v>36.58571782576195</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="C6" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="E6" t="n">
+        <v>28.44816725481975</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19.20934962205158</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19.20934962205158</v>
+      </c>
+      <c r="H6" t="n">
         <v>9.97053198928341</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7317143565152391</v>
       </c>
       <c r="I6" t="n">
         <v>0.7317143565152391</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7317143565152391</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="L6" t="n">
-        <v>9.420822340133704</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="M6" t="n">
-        <v>9.420822340133704</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="N6" t="n">
         <v>18.47578750200979</v>
       </c>
       <c r="O6" t="n">
+        <v>18.47578750200979</v>
+      </c>
+      <c r="P6" t="n">
         <v>27.53075266388587</v>
-      </c>
-      <c r="P6" t="n">
-        <v>36.58571782576195</v>
       </c>
       <c r="Q6" t="n">
         <v>36.58571782576195</v>
@@ -4673,25 +4673,25 @@
         <v>36.58571782576195</v>
       </c>
       <c r="S6" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="T6" t="n">
-        <v>18.10808256022561</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="U6" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="V6" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="W6" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="X6" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.97053198928341</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="C7" t="n">
-        <v>9.97053198928341</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="D7" t="n">
-        <v>9.97053198928341</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="E7" t="n">
-        <v>9.97053198928341</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="F7" t="n">
-        <v>9.97053198928341</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="G7" t="n">
-        <v>9.97053198928341</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="H7" t="n">
-        <v>9.97053198928341</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="I7" t="n">
         <v>0.7317143565152391</v>
       </c>
       <c r="J7" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="K7" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="L7" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="M7" t="n">
-        <v>18.84164468026741</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="N7" t="n">
-        <v>27.53075266388587</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="O7" t="n">
-        <v>27.53075266388587</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="P7" t="n">
         <v>27.53075266388587</v>
@@ -4758,19 +4758,19 @@
         <v>36.58571782576195</v>
       </c>
       <c r="U7" t="n">
-        <v>28.44816725481975</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="V7" t="n">
-        <v>28.44816725481975</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="W7" t="n">
-        <v>19.20934962205158</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="X7" t="n">
-        <v>9.97053198928341</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.97053198928341</v>
+        <v>18.10808256022561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.40494220167653</v>
+        <v>30.40494220167654</v>
       </c>
       <c r="C8" t="n">
-        <v>24.32075555535072</v>
+        <v>24.32075555535073</v>
       </c>
       <c r="D8" t="n">
         <v>23.89722968881533</v>
@@ -4807,16 +4807,16 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="K8" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="L8" t="n">
         <v>9.786679518391322</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>18.47578750200979</v>
       </c>
-      <c r="M8" t="n">
-        <v>27.53075266388587</v>
-      </c>
       <c r="N8" t="n">
-        <v>27.53075266388587</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="O8" t="n">
         <v>27.53075266388587</v>
@@ -4862,22 +4862,22 @@
         <v>19.20934962205158</v>
       </c>
       <c r="C9" t="n">
-        <v>19.20934962205158</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="D9" t="n">
-        <v>19.20934962205158</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="E9" t="n">
-        <v>19.20934962205158</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="F9" t="n">
-        <v>19.20934962205158</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="G9" t="n">
-        <v>19.20934962205158</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="H9" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="I9" t="n">
         <v>0.7317143565152391</v>
@@ -4889,19 +4889,19 @@
         <v>9.786679518391322</v>
       </c>
       <c r="L9" t="n">
-        <v>9.786679518391322</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="M9" t="n">
-        <v>9.786679518391322</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="N9" t="n">
         <v>18.84164468026741</v>
       </c>
       <c r="O9" t="n">
-        <v>18.84164468026741</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="P9" t="n">
-        <v>18.84164468026741</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="Q9" t="n">
         <v>27.53075266388587</v>
@@ -4913,22 +4913,22 @@
         <v>36.58571782576195</v>
       </c>
       <c r="T9" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="U9" t="n">
-        <v>19.20934962205158</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="V9" t="n">
-        <v>19.20934962205158</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="W9" t="n">
-        <v>19.20934962205158</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="X9" t="n">
-        <v>19.20934962205158</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.20934962205158</v>
+        <v>28.44816725481975</v>
       </c>
     </row>
     <row r="10">
@@ -4962,49 +4962,49 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K10" t="n">
         <v>9.786679518391322</v>
       </c>
       <c r="L10" t="n">
+        <v>9.786679518391322</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.786679518391322</v>
+      </c>
+      <c r="N10" t="n">
         <v>18.47578750200979</v>
-      </c>
-      <c r="M10" t="n">
-        <v>27.53075266388587</v>
-      </c>
-      <c r="N10" t="n">
-        <v>27.53075266388587</v>
       </c>
       <c r="O10" t="n">
         <v>27.53075266388587</v>
       </c>
       <c r="P10" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Q10" t="n">
         <v>36.58571782576195</v>
       </c>
       <c r="R10" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="S10" t="n">
-        <v>18.10808256022561</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="T10" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="U10" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="V10" t="n">
-        <v>9.97053198928341</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="W10" t="n">
-        <v>9.97053198928341</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="X10" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="Y10" t="n">
         <v>9.97053198928341</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>860.8407694977668</v>
+        <v>877.4072516371398</v>
       </c>
       <c r="C11" t="n">
-        <v>860.8407694977668</v>
+        <v>877.4072516371398</v>
       </c>
       <c r="D11" t="n">
-        <v>456.3768395908273</v>
+        <v>877.4072516371398</v>
       </c>
       <c r="E11" t="n">
-        <v>456.3768395908273</v>
+        <v>877.4072516371398</v>
       </c>
       <c r="F11" t="n">
         <v>456.3768395908273</v>
       </c>
       <c r="G11" t="n">
-        <v>49.65386639548662</v>
+        <v>49.65386639548663</v>
       </c>
       <c r="H11" t="n">
-        <v>49.65386639548662</v>
+        <v>49.65386639548663</v>
       </c>
       <c r="I11" t="n">
-        <v>40.61185264077371</v>
+        <v>40.61185264077372</v>
       </c>
       <c r="J11" t="n">
-        <v>461.6086357968591</v>
+        <v>425.8160953700004</v>
       </c>
       <c r="K11" t="n">
-        <v>623.3705248694829</v>
+        <v>587.5779844426243</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9956657812288</v>
+        <v>803.2031253543702</v>
       </c>
       <c r="M11" t="n">
-        <v>1091.74630372715</v>
+        <v>1055.953763300291</v>
       </c>
       <c r="N11" t="n">
-        <v>1441.658430280402</v>
+        <v>1314.662763204261</v>
       </c>
       <c r="O11" t="n">
-        <v>1680.549221960971</v>
+        <v>1553.55355488483</v>
       </c>
       <c r="P11" t="n">
-        <v>1870.464080378659</v>
+        <v>1743.468413302518</v>
       </c>
       <c r="Q11" t="n">
-        <v>1993.572267480348</v>
+        <v>1866.576600404207</v>
       </c>
       <c r="R11" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="S11" t="n">
-        <v>2030.592632038686</v>
+        <v>1941.007579236047</v>
       </c>
       <c r="T11" t="n">
-        <v>1851.338691893661</v>
+        <v>1727.579343699429</v>
       </c>
       <c r="U11" t="n">
-        <v>1594.438625026118</v>
+        <v>1470.679276831885</v>
       </c>
       <c r="V11" t="n">
-        <v>1244.601070362598</v>
+        <v>1120.841722168366</v>
       </c>
       <c r="W11" t="n">
-        <v>860.8407694977668</v>
+        <v>1120.841722168366</v>
       </c>
       <c r="X11" t="n">
-        <v>860.8407694977668</v>
+        <v>1120.841722168366</v>
       </c>
       <c r="Y11" t="n">
-        <v>860.8407694977668</v>
+        <v>1120.841722168366</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>687.2588649679232</v>
+        <v>687.258864967923</v>
       </c>
       <c r="C12" t="n">
-        <v>553.2637937168688</v>
+        <v>553.2637937168687</v>
       </c>
       <c r="D12" t="n">
-        <v>436.3666359362612</v>
+        <v>436.3666359362611</v>
       </c>
       <c r="E12" t="n">
-        <v>315.8738199285892</v>
+        <v>315.8738199285891</v>
       </c>
       <c r="F12" t="n">
-        <v>206.9139401110938</v>
+        <v>206.9139401110937</v>
       </c>
       <c r="G12" t="n">
-        <v>100.9967633533974</v>
+        <v>100.9967633533972</v>
       </c>
       <c r="H12" t="n">
-        <v>40.61185264077371</v>
+        <v>40.61185264077372</v>
       </c>
       <c r="I12" t="n">
-        <v>56.48202817919477</v>
+        <v>56.48202817919478</v>
       </c>
       <c r="J12" t="n">
-        <v>348.6465602115093</v>
+        <v>104.978156236876</v>
       </c>
       <c r="K12" t="n">
-        <v>463.1868714253102</v>
+        <v>607.5498326664508</v>
       </c>
       <c r="L12" t="n">
-        <v>635.9610841724513</v>
+        <v>819.710750336149</v>
       </c>
       <c r="M12" t="n">
-        <v>845.4199728249894</v>
+        <v>1029.169638988687</v>
       </c>
       <c r="N12" t="n">
-        <v>1207.973326467949</v>
+        <v>1250.00778235036</v>
       </c>
       <c r="O12" t="n">
-        <v>1710.545002897524</v>
+        <v>1443.032522237515</v>
       </c>
       <c r="P12" t="n">
-        <v>1857.634482190108</v>
+        <v>1945.604198667089</v>
       </c>
       <c r="Q12" t="n">
-        <v>1935.742629235509</v>
+        <v>2023.712345712491</v>
       </c>
       <c r="R12" t="n">
         <v>2030.592632038686</v>
@@ -5162,10 +5162,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X12" t="n">
-        <v>986.9638572396798</v>
+        <v>986.9638572396797</v>
       </c>
       <c r="Y12" t="n">
-        <v>827.5618976035098</v>
+        <v>827.5618976035097</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1004.702651387599</v>
+        <v>538.9669178454424</v>
       </c>
       <c r="C13" t="n">
-        <v>833.6092789493155</v>
+        <v>367.8735454071589</v>
       </c>
       <c r="D13" t="n">
-        <v>674.1146342722254</v>
+        <v>367.8735454071589</v>
       </c>
       <c r="E13" t="n">
-        <v>513.203819140545</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="F13" t="n">
-        <v>348.5726932511362</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="G13" t="n">
-        <v>182.2218156164316</v>
+        <v>40.61185264077372</v>
       </c>
       <c r="H13" t="n">
-        <v>40.61185264077371</v>
+        <v>40.61185264077372</v>
       </c>
       <c r="I13" t="n">
-        <v>40.61185264077371</v>
+        <v>40.61185264077372</v>
       </c>
       <c r="J13" t="n">
-        <v>52.02308616132028</v>
+        <v>117.0244497926567</v>
       </c>
       <c r="K13" t="n">
-        <v>102.7226357797103</v>
+        <v>167.7239994110467</v>
       </c>
       <c r="L13" t="n">
-        <v>493.6915633516677</v>
+        <v>558.6929269830041</v>
       </c>
       <c r="M13" t="n">
-        <v>921.1524840451984</v>
+        <v>986.153847676535</v>
       </c>
       <c r="N13" t="n">
-        <v>1336.902118145729</v>
+        <v>1194.766367349738</v>
       </c>
       <c r="O13" t="n">
-        <v>1721.074735977058</v>
+        <v>1578.938985181068</v>
       </c>
       <c r="P13" t="n">
-        <v>2017.515485446435</v>
+        <v>1891.241525240598</v>
       </c>
       <c r="Q13" t="n">
         <v>2030.592632038686</v>
@@ -5226,25 +5226,25 @@
         <v>2030.592632038686</v>
       </c>
       <c r="S13" t="n">
-        <v>1934.551583024321</v>
+        <v>1859.876929955001</v>
       </c>
       <c r="T13" t="n">
-        <v>1934.551583024321</v>
+        <v>1624.171566537916</v>
       </c>
       <c r="U13" t="n">
-        <v>1934.551583024321</v>
+        <v>1341.422483453481</v>
       </c>
       <c r="V13" t="n">
-        <v>1934.551583024321</v>
+        <v>1067.536738393003</v>
       </c>
       <c r="W13" t="n">
-        <v>1655.481918533195</v>
+        <v>788.467073901877</v>
       </c>
       <c r="X13" t="n">
-        <v>1417.138056392879</v>
+        <v>788.467073901877</v>
       </c>
       <c r="Y13" t="n">
-        <v>1192.402357781643</v>
+        <v>563.7313752906417</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1620.371452374196</v>
+        <v>447.3348258361144</v>
       </c>
       <c r="C14" t="n">
-        <v>1210.246861687466</v>
+        <v>447.3348258361144</v>
       </c>
       <c r="D14" t="n">
-        <v>1210.246861687466</v>
+        <v>447.3348258361144</v>
       </c>
       <c r="E14" t="n">
-        <v>795.9066462043629</v>
+        <v>447.3348258361144</v>
       </c>
       <c r="F14" t="n">
-        <v>374.8762341580505</v>
+        <v>447.3348258361144</v>
       </c>
       <c r="G14" t="n">
-        <v>340.0254733920195</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="H14" t="n">
-        <v>49.65386639548662</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I14" t="n">
         <v>40.61185264077371</v>
@@ -5281,22 +5281,22 @@
         <v>461.6086357968591</v>
       </c>
       <c r="K14" t="n">
-        <v>623.3705248694829</v>
+        <v>714.573651518765</v>
       </c>
       <c r="L14" t="n">
-        <v>838.9956657812288</v>
+        <v>930.1987924305109</v>
       </c>
       <c r="M14" t="n">
-        <v>1091.74630372715</v>
+        <v>1182.949430376432</v>
       </c>
       <c r="N14" t="n">
-        <v>1350.45530363112</v>
+        <v>1441.658430280402</v>
       </c>
       <c r="O14" t="n">
-        <v>1589.346095311688</v>
+        <v>1680.549221960971</v>
       </c>
       <c r="P14" t="n">
-        <v>1779.260953729377</v>
+        <v>1870.464080378659</v>
       </c>
       <c r="Q14" t="n">
         <v>1993.572267480348</v>
@@ -5308,22 +5308,22 @@
         <v>2030.592632038686</v>
       </c>
       <c r="T14" t="n">
-        <v>2030.592632038686</v>
+        <v>1817.164396502068</v>
       </c>
       <c r="U14" t="n">
-        <v>2030.592632038686</v>
+        <v>1560.264329634524</v>
       </c>
       <c r="V14" t="n">
-        <v>2030.592632038686</v>
+        <v>1560.264329634524</v>
       </c>
       <c r="W14" t="n">
-        <v>2030.592632038686</v>
+        <v>1560.264329634524</v>
       </c>
       <c r="X14" t="n">
-        <v>2030.592632038686</v>
+        <v>1159.620931803476</v>
       </c>
       <c r="Y14" t="n">
-        <v>2030.592632038686</v>
+        <v>857.5560055006039</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>687.2588649679233</v>
+        <v>687.2588649679227</v>
       </c>
       <c r="C15" t="n">
-        <v>553.263793716869</v>
+        <v>553.2637937168685</v>
       </c>
       <c r="D15" t="n">
-        <v>436.3666359362614</v>
+        <v>436.366635936261</v>
       </c>
       <c r="E15" t="n">
-        <v>315.8738199285895</v>
+        <v>315.873819928589</v>
       </c>
       <c r="F15" t="n">
-        <v>206.913940111094</v>
+        <v>206.9139401110936</v>
       </c>
       <c r="G15" t="n">
         <v>100.9967633533972</v>
@@ -5354,28 +5354,28 @@
         <v>40.61185264077371</v>
       </c>
       <c r="I15" t="n">
-        <v>40.61185264077371</v>
+        <v>56.48202817919477</v>
       </c>
       <c r="J15" t="n">
-        <v>89.10798069845492</v>
+        <v>104.978156236876</v>
       </c>
       <c r="K15" t="n">
-        <v>591.6796571280297</v>
+        <v>219.518467450677</v>
       </c>
       <c r="L15" t="n">
-        <v>764.4538698751707</v>
+        <v>722.0901438802516</v>
       </c>
       <c r="M15" t="n">
-        <v>973.9127585277088</v>
+        <v>1075.104899583258</v>
       </c>
       <c r="N15" t="n">
-        <v>1194.750901889382</v>
+        <v>1295.943042944931</v>
       </c>
       <c r="O15" t="n">
-        <v>1387.775641776536</v>
+        <v>1798.514719374506</v>
       </c>
       <c r="P15" t="n">
-        <v>1539.634041663315</v>
+        <v>1945.604198667089</v>
       </c>
       <c r="Q15" t="n">
         <v>2023.712345712491</v>
@@ -5390,7 +5390,7 @@
         <v>1787.514757343208</v>
       </c>
       <c r="U15" t="n">
-        <v>1590.234534371425</v>
+        <v>1590.234534371424</v>
       </c>
       <c r="V15" t="n">
         <v>1376.523007364458</v>
@@ -5399,10 +5399,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X15" t="n">
-        <v>986.9638572396799</v>
+        <v>986.9638572396793</v>
       </c>
       <c r="Y15" t="n">
-        <v>827.5618976035099</v>
+        <v>827.5618976035094</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1093.99787493146</v>
+        <v>1004.702651387599</v>
       </c>
       <c r="C16" t="n">
-        <v>922.9045024931763</v>
+        <v>833.6092789493155</v>
       </c>
       <c r="D16" t="n">
-        <v>763.4098578160863</v>
+        <v>674.1146342722254</v>
       </c>
       <c r="E16" t="n">
-        <v>602.4990426844057</v>
+        <v>513.203819140545</v>
       </c>
       <c r="F16" t="n">
-        <v>437.867916794997</v>
+        <v>348.5726932511362</v>
       </c>
       <c r="G16" t="n">
-        <v>271.5170391602923</v>
+        <v>182.2218156164316</v>
       </c>
       <c r="H16" t="n">
-        <v>129.9070761846345</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I16" t="n">
         <v>40.61185264077371</v>
       </c>
       <c r="J16" t="n">
-        <v>52.02308616132028</v>
+        <v>117.0244497926567</v>
       </c>
       <c r="K16" t="n">
-        <v>102.7226357797103</v>
+        <v>374.0041929967609</v>
       </c>
       <c r="L16" t="n">
-        <v>493.6915633516677</v>
+        <v>764.9731205687183</v>
       </c>
       <c r="M16" t="n">
-        <v>921.1524840451984</v>
+        <v>1192.434041262249</v>
       </c>
       <c r="N16" t="n">
-        <v>1336.902118145729</v>
+        <v>1276.149373915194</v>
       </c>
       <c r="O16" t="n">
-        <v>1721.074735977058</v>
+        <v>1578.938985181068</v>
       </c>
       <c r="P16" t="n">
-        <v>2017.515485446435</v>
+        <v>1891.241525240598</v>
       </c>
       <c r="Q16" t="n">
         <v>2030.592632038686</v>
@@ -5469,19 +5469,19 @@
         <v>1815.04960683961</v>
       </c>
       <c r="U16" t="n">
-        <v>1815.04960683961</v>
+        <v>1532.300523755176</v>
       </c>
       <c r="V16" t="n">
-        <v>1815.04960683961</v>
+        <v>1532.300523755176</v>
       </c>
       <c r="W16" t="n">
-        <v>1744.777142077056</v>
+        <v>1253.23085926405</v>
       </c>
       <c r="X16" t="n">
-        <v>1506.433279936739</v>
+        <v>1014.886997123733</v>
       </c>
       <c r="Y16" t="n">
-        <v>1281.697581325504</v>
+        <v>1014.886997123733</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>340.0254733920195</v>
+        <v>1560.264329634524</v>
       </c>
       <c r="C17" t="n">
-        <v>340.0254733920195</v>
+        <v>1560.264329634524</v>
       </c>
       <c r="D17" t="n">
-        <v>340.0254733920195</v>
+        <v>1560.264329634524</v>
       </c>
       <c r="E17" t="n">
-        <v>340.0254733920195</v>
+        <v>1145.924114151421</v>
       </c>
       <c r="F17" t="n">
-        <v>340.0254733920195</v>
+        <v>724.8937021051081</v>
       </c>
       <c r="G17" t="n">
-        <v>340.0254733920195</v>
+        <v>318.1707289097674</v>
       </c>
       <c r="H17" t="n">
-        <v>49.65386639548663</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I17" t="n">
-        <v>40.61185264077372</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="J17" t="n">
-        <v>461.6086357968591</v>
+        <v>134.83280890913</v>
       </c>
       <c r="K17" t="n">
-        <v>623.3705248694829</v>
+        <v>296.5946979817538</v>
       </c>
       <c r="L17" t="n">
-        <v>838.9956657812288</v>
+        <v>512.2198388934999</v>
       </c>
       <c r="M17" t="n">
-        <v>1091.74630372715</v>
+        <v>764.9704768394209</v>
       </c>
       <c r="N17" t="n">
-        <v>1350.45530363112</v>
+        <v>1050.981878455255</v>
       </c>
       <c r="O17" t="n">
-        <v>1589.346095311688</v>
+        <v>1553.55355488483</v>
       </c>
       <c r="P17" t="n">
-        <v>1779.260953729377</v>
+        <v>1743.468413302518</v>
       </c>
       <c r="Q17" t="n">
-        <v>1993.572267480348</v>
+        <v>1866.576600404207</v>
       </c>
       <c r="R17" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="S17" t="n">
-        <v>1941.007579236047</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="T17" t="n">
-        <v>1941.007579236047</v>
+        <v>1817.164396502068</v>
       </c>
       <c r="U17" t="n">
-        <v>1941.007579236047</v>
+        <v>1560.264329634524</v>
       </c>
       <c r="V17" t="n">
-        <v>1591.170024572527</v>
+        <v>1560.264329634524</v>
       </c>
       <c r="W17" t="n">
-        <v>1207.409723707696</v>
+        <v>1560.264329634524</v>
       </c>
       <c r="X17" t="n">
-        <v>806.7663258766486</v>
+        <v>1560.264329634524</v>
       </c>
       <c r="Y17" t="n">
-        <v>750.246653056509</v>
+        <v>1560.264329634524</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>687.2588649679233</v>
+        <v>687.258864967923</v>
       </c>
       <c r="C18" t="n">
-        <v>553.263793716869</v>
+        <v>553.2637937168687</v>
       </c>
       <c r="D18" t="n">
-        <v>436.3666359362614</v>
+        <v>436.3666359362611</v>
       </c>
       <c r="E18" t="n">
-        <v>315.8738199285895</v>
+        <v>315.8738199285891</v>
       </c>
       <c r="F18" t="n">
-        <v>206.913940111094</v>
+        <v>206.9139401110937</v>
       </c>
       <c r="G18" t="n">
         <v>100.9967633533972</v>
       </c>
       <c r="H18" t="n">
-        <v>40.61185264077372</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I18" t="n">
-        <v>40.61185264077372</v>
+        <v>56.48202817919477</v>
       </c>
       <c r="J18" t="n">
-        <v>332.7763846730882</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K18" t="n">
-        <v>508.4788612452445</v>
+        <v>463.1868714253102</v>
       </c>
       <c r="L18" t="n">
-        <v>681.2530739923855</v>
+        <v>635.9610841724513</v>
       </c>
       <c r="M18" t="n">
-        <v>890.7119626449237</v>
+        <v>845.4199728249894</v>
       </c>
       <c r="N18" t="n">
-        <v>1111.550106006597</v>
+        <v>1066.258116186663</v>
       </c>
       <c r="O18" t="n">
         <v>1304.574845893751</v>
@@ -5615,7 +5615,7 @@
         <v>1451.664325186334</v>
       </c>
       <c r="Q18" t="n">
-        <v>1935.74262923551</v>
+        <v>1935.742629235509</v>
       </c>
       <c r="R18" t="n">
         <v>2030.592632038686</v>
@@ -5627,7 +5627,7 @@
         <v>1787.514757343208</v>
       </c>
       <c r="U18" t="n">
-        <v>1590.234534371425</v>
+        <v>1590.234534371424</v>
       </c>
       <c r="V18" t="n">
         <v>1376.523007364458</v>
@@ -5636,10 +5636,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X18" t="n">
-        <v>986.9638572396799</v>
+        <v>986.9638572396797</v>
       </c>
       <c r="Y18" t="n">
-        <v>827.5618976035099</v>
+        <v>827.5618976035097</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>587.4731733310917</v>
+        <v>378.0561027137618</v>
       </c>
       <c r="C19" t="n">
-        <v>587.4731733310917</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="D19" t="n">
-        <v>587.4731733310917</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="E19" t="n">
-        <v>426.5623581994112</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="F19" t="n">
-        <v>261.9312323100025</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="G19" t="n">
-        <v>95.58035467529785</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="H19" t="n">
-        <v>40.61185264077372</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I19" t="n">
-        <v>40.61185264077372</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="J19" t="n">
-        <v>52.02308616132028</v>
+        <v>117.0244497926567</v>
       </c>
       <c r="K19" t="n">
-        <v>102.7226357797103</v>
+        <v>374.0041929967609</v>
       </c>
       <c r="L19" t="n">
-        <v>477.8297727615148</v>
+        <v>764.9731205687183</v>
       </c>
       <c r="M19" t="n">
-        <v>905.2906934550456</v>
+        <v>1192.434041262249</v>
       </c>
       <c r="N19" t="n">
-        <v>1321.040327555576</v>
+        <v>1276.149373915194</v>
       </c>
       <c r="O19" t="n">
-        <v>1705.212945386906</v>
+        <v>1578.938985181068</v>
       </c>
       <c r="P19" t="n">
-        <v>2017.515485446436</v>
+        <v>1891.241525240598</v>
       </c>
       <c r="Q19" t="n">
         <v>2030.592632038686</v>
@@ -5700,25 +5700,25 @@
         <v>2030.592632038686</v>
       </c>
       <c r="S19" t="n">
-        <v>2030.592632038686</v>
+        <v>1859.876929955</v>
       </c>
       <c r="T19" t="n">
-        <v>1794.887268621601</v>
+        <v>1859.876929955</v>
       </c>
       <c r="U19" t="n">
-        <v>1512.138185537166</v>
+        <v>1577.127846870565</v>
       </c>
       <c r="V19" t="n">
-        <v>1238.252440476688</v>
+        <v>1303.242101810087</v>
       </c>
       <c r="W19" t="n">
-        <v>1238.252440476688</v>
+        <v>1024.172437318962</v>
       </c>
       <c r="X19" t="n">
-        <v>999.9085783363714</v>
+        <v>785.8285751786452</v>
       </c>
       <c r="Y19" t="n">
-        <v>775.1728797251361</v>
+        <v>565.7558091078063</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.61185264077372</v>
+        <v>1692.83004405226</v>
       </c>
       <c r="C20" t="n">
-        <v>40.61185264077372</v>
+        <v>1282.70545336553</v>
       </c>
       <c r="D20" t="n">
-        <v>40.61185264077372</v>
+        <v>1282.70545336553</v>
       </c>
       <c r="E20" t="n">
-        <v>40.61185264077372</v>
+        <v>868.3652378824269</v>
       </c>
       <c r="F20" t="n">
-        <v>40.61185264077372</v>
+        <v>447.3348258361144</v>
       </c>
       <c r="G20" t="n">
-        <v>40.61185264077372</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="H20" t="n">
-        <v>40.61185264077372</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I20" t="n">
-        <v>40.61185264077372</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="J20" t="n">
-        <v>134.83280890913</v>
+        <v>425.8160953700002</v>
       </c>
       <c r="K20" t="n">
-        <v>296.5946979817538</v>
+        <v>587.577984442624</v>
       </c>
       <c r="L20" t="n">
-        <v>512.2198388934999</v>
+        <v>803.2031253543699</v>
       </c>
       <c r="M20" t="n">
-        <v>764.9704768394209</v>
+        <v>1055.953763300291</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.679476743391</v>
+        <v>1314.662763204261</v>
       </c>
       <c r="O20" t="n">
-        <v>1262.57026842396</v>
+        <v>1553.55355488483</v>
       </c>
       <c r="P20" t="n">
         <v>1743.468413302518</v>
@@ -5779,25 +5779,25 @@
         <v>2030.592632038686</v>
       </c>
       <c r="S20" t="n">
-        <v>1941.007579236047</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="T20" t="n">
-        <v>1841.974352532205</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="U20" t="n">
-        <v>1585.074285664661</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="V20" t="n">
-        <v>1235.236731001142</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="W20" t="n">
-        <v>851.4764301363107</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="X20" t="n">
-        <v>450.8330323052631</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="Y20" t="n">
-        <v>450.8330323052631</v>
+        <v>1692.83004405226</v>
       </c>
     </row>
     <row r="21">
@@ -5807,55 +5807,55 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>687.2588649679232</v>
+        <v>687.258864967923</v>
       </c>
       <c r="C21" t="n">
-        <v>553.2637937168688</v>
+        <v>553.2637937168687</v>
       </c>
       <c r="D21" t="n">
-        <v>436.3666359362612</v>
+        <v>436.3666359362611</v>
       </c>
       <c r="E21" t="n">
-        <v>315.8738199285892</v>
+        <v>315.8738199285891</v>
       </c>
       <c r="F21" t="n">
-        <v>206.9139401110938</v>
+        <v>206.9139401110937</v>
       </c>
       <c r="G21" t="n">
         <v>100.9967633533972</v>
       </c>
       <c r="H21" t="n">
-        <v>40.61185264077372</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I21" t="n">
-        <v>40.61185264077372</v>
+        <v>56.48202817919477</v>
       </c>
       <c r="J21" t="n">
-        <v>332.7763846730882</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K21" t="n">
-        <v>508.4788612452445</v>
+        <v>463.1868714253102</v>
       </c>
       <c r="L21" t="n">
-        <v>681.2530739923855</v>
+        <v>965.7585478548849</v>
       </c>
       <c r="M21" t="n">
-        <v>890.7119626449237</v>
+        <v>1296.682119648697</v>
       </c>
       <c r="N21" t="n">
-        <v>1111.550106006597</v>
+        <v>1517.52026301037</v>
       </c>
       <c r="O21" t="n">
-        <v>1304.574845893751</v>
+        <v>1710.545002897524</v>
       </c>
       <c r="P21" t="n">
-        <v>1451.664325186334</v>
+        <v>1857.634482190108</v>
       </c>
       <c r="Q21" t="n">
-        <v>1935.74262923551</v>
+        <v>1935.742629235509</v>
       </c>
       <c r="R21" t="n">
-        <v>2030.592632038686</v>
+        <v>2030.592632038685</v>
       </c>
       <c r="S21" t="n">
         <v>1942.531936429008</v>
@@ -5864,7 +5864,7 @@
         <v>1787.514757343208</v>
       </c>
       <c r="U21" t="n">
-        <v>1590.234534371425</v>
+        <v>1590.234534371424</v>
       </c>
       <c r="V21" t="n">
         <v>1376.523007364458</v>
@@ -5873,10 +5873,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X21" t="n">
-        <v>986.9638572396798</v>
+        <v>986.9638572396797</v>
       </c>
       <c r="Y21" t="n">
-        <v>827.5618976035098</v>
+        <v>827.5618976035097</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>743.6397507864872</v>
+        <v>538.9669178454424</v>
       </c>
       <c r="C22" t="n">
-        <v>572.5463783482037</v>
+        <v>367.8735454071589</v>
       </c>
       <c r="D22" t="n">
-        <v>413.0517336711137</v>
+        <v>367.8735454071589</v>
       </c>
       <c r="E22" t="n">
-        <v>413.0517336711137</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="F22" t="n">
-        <v>248.420607781705</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="G22" t="n">
-        <v>82.06973014700034</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="H22" t="n">
-        <v>82.06973014700034</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I22" t="n">
-        <v>40.61185264077372</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="J22" t="n">
-        <v>52.02308616132028</v>
+        <v>117.0244497926567</v>
       </c>
       <c r="K22" t="n">
-        <v>102.7226357797103</v>
+        <v>374.0041929967609</v>
       </c>
       <c r="L22" t="n">
-        <v>493.6915633516677</v>
+        <v>612.4532960287952</v>
       </c>
       <c r="M22" t="n">
-        <v>921.1524840451984</v>
+        <v>1039.914216722326</v>
       </c>
       <c r="N22" t="n">
-        <v>1336.902118145729</v>
+        <v>1455.663850822856</v>
       </c>
       <c r="O22" t="n">
-        <v>1721.074735977058</v>
+        <v>1839.836468654186</v>
       </c>
       <c r="P22" t="n">
-        <v>2017.515485446436</v>
+        <v>1891.241525240598</v>
       </c>
       <c r="Q22" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="R22" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S22" t="n">
-        <v>1815.049606839611</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="T22" t="n">
-        <v>1579.344243422526</v>
+        <v>1800.714979015842</v>
       </c>
       <c r="U22" t="n">
-        <v>1296.595160338091</v>
+        <v>1517.965895931407</v>
       </c>
       <c r="V22" t="n">
-        <v>1022.709415277613</v>
+        <v>1244.080150870929</v>
       </c>
       <c r="W22" t="n">
-        <v>743.6397507864872</v>
+        <v>965.0104863798033</v>
       </c>
       <c r="X22" t="n">
-        <v>743.6397507864872</v>
+        <v>726.6666242394867</v>
       </c>
       <c r="Y22" t="n">
-        <v>743.6397507864872</v>
+        <v>726.6666242394867</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>760.4509596022525</v>
+        <v>1952.640795503231</v>
       </c>
       <c r="C23" t="n">
-        <v>760.4509596022525</v>
+        <v>1542.516204816501</v>
       </c>
       <c r="D23" t="n">
-        <v>760.4509596022525</v>
+        <v>1138.052274909561</v>
       </c>
       <c r="E23" t="n">
-        <v>760.4509596022525</v>
+        <v>723.7120594264579</v>
       </c>
       <c r="F23" t="n">
-        <v>339.4205475559401</v>
+        <v>302.6816473801455</v>
       </c>
       <c r="G23" t="n">
-        <v>339.4205475559401</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="H23" t="n">
         <v>49.04894055940719</v>
@@ -6010,7 +6010,7 @@
         <v>1787.698041648011</v>
       </c>
       <c r="Q23" t="n">
-        <v>2321.100701900152</v>
+        <v>2288.430996335881</v>
       </c>
       <c r="R23" t="n">
         <v>2452.44702797036</v>
@@ -6019,22 +6019,22 @@
         <v>2362.86197516772</v>
       </c>
       <c r="T23" t="n">
-        <v>2149.433739631102</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="U23" t="n">
-        <v>1892.533672763558</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="V23" t="n">
-        <v>1571.315537097789</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="W23" t="n">
-        <v>1571.315537097789</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="X23" t="n">
-        <v>1170.672139266742</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="Y23" t="n">
-        <v>1170.672139266742</v>
+        <v>2362.86197516772</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>49.04894055940719</v>
       </c>
       <c r="I24" t="n">
-        <v>49.04894055940719</v>
+        <v>64.91911609782825</v>
       </c>
       <c r="J24" t="n">
-        <v>341.2134725917217</v>
+        <v>113.4152441555095</v>
       </c>
       <c r="K24" t="n">
-        <v>455.7537838055226</v>
+        <v>227.9555553693104</v>
       </c>
       <c r="L24" t="n">
-        <v>628.5279965526636</v>
+        <v>400.7297681164514</v>
       </c>
       <c r="M24" t="n">
-        <v>837.9868852052018</v>
+        <v>610.1886567689896</v>
       </c>
       <c r="N24" t="n">
-        <v>1444.967524627866</v>
+        <v>831.0268001306629</v>
       </c>
       <c r="O24" t="n">
-        <v>1637.99226451502</v>
+        <v>1024.051540017817</v>
       </c>
       <c r="P24" t="n">
-        <v>1866.071570108741</v>
+        <v>1460.101413104967</v>
       </c>
       <c r="Q24" t="n">
         <v>1944.179717154143</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1102.434962850093</v>
+        <v>559.5422026879547</v>
       </c>
       <c r="C25" t="n">
-        <v>931.3415904118096</v>
+        <v>388.4488302496712</v>
       </c>
       <c r="D25" t="n">
-        <v>771.8469457347196</v>
+        <v>388.4488302496712</v>
       </c>
       <c r="E25" t="n">
-        <v>610.9361306030391</v>
+        <v>227.5380151179907</v>
       </c>
       <c r="F25" t="n">
-        <v>446.3050047136304</v>
+        <v>215.3998181941118</v>
       </c>
       <c r="G25" t="n">
-        <v>279.9541270789258</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="H25" t="n">
-        <v>138.344164103268</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="I25" t="n">
         <v>49.04894055940719</v>
       </c>
       <c r="J25" t="n">
-        <v>125.4615377112901</v>
+        <v>125.46153771129</v>
       </c>
       <c r="K25" t="n">
-        <v>382.4412809153943</v>
+        <v>382.4412809153944</v>
       </c>
       <c r="L25" t="n">
-        <v>773.4102084873514</v>
+        <v>773.4102084873517</v>
       </c>
       <c r="M25" t="n">
         <v>1200.871129180882</v>
       </c>
       <c r="N25" t="n">
-        <v>1616.620763281412</v>
+        <v>1616.620763281413</v>
       </c>
       <c r="O25" t="n">
         <v>2000.793381112742</v>
@@ -6180,19 +6180,19 @@
         <v>2046.025962469589</v>
       </c>
       <c r="U25" t="n">
-        <v>2046.025962469589</v>
+        <v>1763.276879385155</v>
       </c>
       <c r="V25" t="n">
-        <v>2032.283894486815</v>
+        <v>1489.391134324677</v>
       </c>
       <c r="W25" t="n">
-        <v>1753.214229995689</v>
+        <v>1210.321469833551</v>
       </c>
       <c r="X25" t="n">
-        <v>1514.870367855373</v>
+        <v>971.9776076932344</v>
       </c>
       <c r="Y25" t="n">
-        <v>1290.134669244138</v>
+        <v>747.2419090819991</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>453.5128704663467</v>
+        <v>455.7719137547479</v>
       </c>
       <c r="C26" t="n">
-        <v>453.5128704663467</v>
+        <v>455.7719137547479</v>
       </c>
       <c r="D26" t="n">
-        <v>49.0489405594072</v>
+        <v>455.7719137547479</v>
       </c>
       <c r="E26" t="n">
-        <v>49.0489405594072</v>
+        <v>455.7719137547479</v>
       </c>
       <c r="F26" t="n">
-        <v>49.0489405594072</v>
+        <v>455.7719137547479</v>
       </c>
       <c r="G26" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="H26" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="I26" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="J26" t="n">
-        <v>470.0457237154926</v>
+        <v>143.2698968277634</v>
       </c>
       <c r="K26" t="n">
-        <v>631.8076127881163</v>
+        <v>305.0317859003873</v>
       </c>
       <c r="L26" t="n">
-        <v>847.4327536998624</v>
+        <v>520.6569268121332</v>
       </c>
       <c r="M26" t="n">
-        <v>1100.183391645783</v>
+        <v>773.4075647580543</v>
       </c>
       <c r="N26" t="n">
-        <v>1358.892391549753</v>
+        <v>1032.116564662024</v>
       </c>
       <c r="O26" t="n">
-        <v>1597.783183230322</v>
+        <v>1565.113477666051</v>
       </c>
       <c r="P26" t="n">
-        <v>1787.698041648011</v>
+        <v>1755.02833608374</v>
       </c>
       <c r="Q26" t="n">
         <v>2288.430996335881</v>
@@ -6253,25 +6253,25 @@
         <v>2452.44702797036</v>
       </c>
       <c r="S26" t="n">
-        <v>2452.44702797036</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="T26" t="n">
-        <v>2452.44702797036</v>
+        <v>2274.310785833258</v>
       </c>
       <c r="U26" t="n">
-        <v>2398.911976542144</v>
+        <v>2017.410718965714</v>
       </c>
       <c r="V26" t="n">
-        <v>2049.074421878625</v>
+        <v>1667.573164302195</v>
       </c>
       <c r="W26" t="n">
-        <v>1665.314121013793</v>
+        <v>1667.573164302195</v>
       </c>
       <c r="X26" t="n">
-        <v>1264.670723182746</v>
+        <v>1266.929766471147</v>
       </c>
       <c r="Y26" t="n">
-        <v>863.7340501308361</v>
+        <v>865.9930934192373</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>109.4338512720307</v>
       </c>
       <c r="H27" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="I27" t="n">
-        <v>49.0489405594072</v>
+        <v>64.91911609782825</v>
       </c>
       <c r="J27" t="n">
-        <v>341.2134725917217</v>
+        <v>357.0836481301427</v>
       </c>
       <c r="K27" t="n">
-        <v>455.7537838055226</v>
+        <v>922.8861061676513</v>
       </c>
       <c r="L27" t="n">
-        <v>628.5279965526636</v>
+        <v>1095.660318914792</v>
       </c>
       <c r="M27" t="n">
-        <v>837.9868852052018</v>
+        <v>1305.11920756733</v>
       </c>
       <c r="N27" t="n">
-        <v>1444.967524627866</v>
+        <v>1525.957350929004</v>
       </c>
       <c r="O27" t="n">
         <v>1718.982090816158</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>853.6450946291425</v>
+        <v>937.8038369606845</v>
       </c>
       <c r="C28" t="n">
-        <v>682.551722190859</v>
+        <v>766.710464522401</v>
       </c>
       <c r="D28" t="n">
-        <v>682.551722190859</v>
+        <v>607.215819845311</v>
       </c>
       <c r="E28" t="n">
-        <v>521.6409070591784</v>
+        <v>446.3050047136304</v>
       </c>
       <c r="F28" t="n">
-        <v>357.0097811697697</v>
+        <v>446.3050047136304</v>
       </c>
       <c r="G28" t="n">
-        <v>190.6589035350651</v>
+        <v>279.9541270789258</v>
       </c>
       <c r="H28" t="n">
-        <v>49.0489405594072</v>
+        <v>138.344164103268</v>
       </c>
       <c r="I28" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="J28" t="n">
         <v>125.46153771129</v>
       </c>
       <c r="K28" t="n">
-        <v>382.4412809153946</v>
+        <v>382.4412809153941</v>
       </c>
       <c r="L28" t="n">
-        <v>773.4102084873518</v>
+        <v>773.4102084873515</v>
       </c>
       <c r="M28" t="n">
         <v>1200.871129180882</v>
       </c>
       <c r="N28" t="n">
-        <v>1616.620763281413</v>
+        <v>1616.620763281412</v>
       </c>
       <c r="O28" t="n">
-        <v>2000.793381112743</v>
+        <v>2000.793381112742</v>
       </c>
       <c r="P28" t="n">
         <v>2313.095921172272</v>
@@ -6408,28 +6408,28 @@
         <v>2452.44702797036</v>
       </c>
       <c r="R28" t="n">
-        <v>2407.61970485497</v>
+        <v>2407.619704854969</v>
       </c>
       <c r="S28" t="n">
-        <v>2407.61970485497</v>
+        <v>2407.619704854969</v>
       </c>
       <c r="T28" t="n">
-        <v>2340.128854410777</v>
+        <v>2171.914341437884</v>
       </c>
       <c r="U28" t="n">
-        <v>2057.379771326343</v>
+        <v>1889.165258353449</v>
       </c>
       <c r="V28" t="n">
-        <v>1783.494026265864</v>
+        <v>1615.279513292971</v>
       </c>
       <c r="W28" t="n">
-        <v>1504.424361774739</v>
+        <v>1336.209848801846</v>
       </c>
       <c r="X28" t="n">
-        <v>1266.080499634422</v>
+        <v>1097.865986661529</v>
       </c>
       <c r="Y28" t="n">
-        <v>1041.344801023187</v>
+        <v>937.8038369606845</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1277.97767663618</v>
+        <v>1274.576059144791</v>
       </c>
       <c r="C29" t="n">
-        <v>867.8530859494499</v>
+        <v>1274.576059144791</v>
       </c>
       <c r="D29" t="n">
-        <v>463.3891560425105</v>
+        <v>870.1121292378511</v>
       </c>
       <c r="E29" t="n">
-        <v>49.0489405594072</v>
+        <v>455.7719137547479</v>
       </c>
       <c r="F29" t="n">
-        <v>49.0489405594072</v>
+        <v>455.7719137547479</v>
       </c>
       <c r="G29" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="H29" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="I29" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="J29" t="n">
         <v>470.0457237154926</v>
       </c>
       <c r="K29" t="n">
-        <v>1077.026363138157</v>
+        <v>726.1335742999868</v>
       </c>
       <c r="L29" t="n">
-        <v>1292.651504049903</v>
+        <v>941.7587152117327</v>
       </c>
       <c r="M29" t="n">
-        <v>1545.402141995824</v>
+        <v>1194.509353157654</v>
       </c>
       <c r="N29" t="n">
-        <v>1804.111141899794</v>
+        <v>1453.218353061624</v>
       </c>
       <c r="O29" t="n">
-        <v>2043.001933580362</v>
+        <v>1692.109144742192</v>
       </c>
       <c r="P29" t="n">
-        <v>2232.916791998051</v>
+        <v>1882.024003159881</v>
       </c>
       <c r="Q29" t="n">
-        <v>2356.02497909974</v>
+        <v>2415.426663412022</v>
       </c>
       <c r="R29" t="n">
         <v>2452.44702797036</v>
@@ -6493,22 +6493,22 @@
         <v>2452.44702797036</v>
       </c>
       <c r="T29" t="n">
-        <v>2452.44702797036</v>
+        <v>2282.250353727763</v>
       </c>
       <c r="U29" t="n">
-        <v>2452.44702797036</v>
+        <v>2025.35028686022</v>
       </c>
       <c r="V29" t="n">
-        <v>2452.44702797036</v>
+        <v>1675.512732196701</v>
       </c>
       <c r="W29" t="n">
-        <v>2089.135529352579</v>
+        <v>1675.512732196701</v>
       </c>
       <c r="X29" t="n">
-        <v>2089.135529352579</v>
+        <v>1675.512732196701</v>
       </c>
       <c r="Y29" t="n">
-        <v>1688.198856300669</v>
+        <v>1274.576059144791</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>109.4338512720307</v>
       </c>
       <c r="H30" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="I30" t="n">
-        <v>49.0489405594072</v>
+        <v>64.91911609782825</v>
       </c>
       <c r="J30" t="n">
-        <v>97.5450686170884</v>
+        <v>357.0836481301427</v>
       </c>
       <c r="K30" t="n">
-        <v>212.0853798308894</v>
+        <v>471.6239593439437</v>
       </c>
       <c r="L30" t="n">
-        <v>723.7388752616928</v>
+        <v>644.3981720910847</v>
       </c>
       <c r="M30" t="n">
-        <v>933.197763914231</v>
+        <v>853.8570607436229</v>
       </c>
       <c r="N30" t="n">
-        <v>1154.035907275904</v>
+        <v>1074.695204105296</v>
       </c>
       <c r="O30" t="n">
-        <v>1347.060647163058</v>
+        <v>1267.71994399245</v>
       </c>
       <c r="P30" t="n">
-        <v>1954.041286585722</v>
+        <v>1460.101413104967</v>
       </c>
       <c r="Q30" t="n">
-        <v>2032.149433631124</v>
+        <v>1944.179717154143</v>
       </c>
       <c r="R30" t="n">
         <v>2039.029719957319</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1102.434962850093</v>
+        <v>1013.139739306233</v>
       </c>
       <c r="C31" t="n">
-        <v>931.3415904118096</v>
+        <v>842.046366867949</v>
       </c>
       <c r="D31" t="n">
-        <v>771.8469457347196</v>
+        <v>682.551722190859</v>
       </c>
       <c r="E31" t="n">
-        <v>610.9361306030391</v>
+        <v>521.6409070591784</v>
       </c>
       <c r="F31" t="n">
-        <v>446.3050047136304</v>
+        <v>357.0097811697697</v>
       </c>
       <c r="G31" t="n">
-        <v>279.9541270789258</v>
+        <v>190.658903535065</v>
       </c>
       <c r="H31" t="n">
-        <v>138.344164103268</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="I31" t="n">
-        <v>49.0489405594072</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="J31" t="n">
         <v>125.46153771129</v>
       </c>
       <c r="K31" t="n">
-        <v>382.4412809153944</v>
+        <v>382.4412809153941</v>
       </c>
       <c r="L31" t="n">
-        <v>773.4102084873518</v>
+        <v>773.4102084873515</v>
       </c>
       <c r="M31" t="n">
-        <v>1200.871129180883</v>
+        <v>1200.871129180882</v>
       </c>
       <c r="N31" t="n">
-        <v>1616.620763281413</v>
+        <v>1616.620763281412</v>
       </c>
       <c r="O31" t="n">
-        <v>2000.793381112743</v>
+        <v>2000.793381112742</v>
       </c>
       <c r="P31" t="n">
         <v>2313.095921172272</v>
@@ -6645,28 +6645,28 @@
         <v>2452.44702797036</v>
       </c>
       <c r="R31" t="n">
-        <v>2452.44702797036</v>
+        <v>2407.619704854969</v>
       </c>
       <c r="S31" t="n">
-        <v>2452.44702797036</v>
+        <v>2407.619704854969</v>
       </c>
       <c r="T31" t="n">
-        <v>2306.169639547293</v>
+        <v>2171.914341437884</v>
       </c>
       <c r="U31" t="n">
-        <v>2306.169639547293</v>
+        <v>1889.165258353449</v>
       </c>
       <c r="V31" t="n">
-        <v>2032.283894486815</v>
+        <v>1615.279513292971</v>
       </c>
       <c r="W31" t="n">
-        <v>1753.214229995689</v>
+        <v>1439.183307840593</v>
       </c>
       <c r="X31" t="n">
-        <v>1514.870367855373</v>
+        <v>1200.839445700277</v>
       </c>
       <c r="Y31" t="n">
-        <v>1290.134669244138</v>
+        <v>1200.839445700277</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1699.008088682492</v>
+        <v>869.2778574164004</v>
       </c>
       <c r="C32" t="n">
-        <v>1288.883497995762</v>
+        <v>869.2778574164004</v>
       </c>
       <c r="D32" t="n">
-        <v>884.4195680888229</v>
+        <v>464.8139275094608</v>
       </c>
       <c r="E32" t="n">
-        <v>470.0793526057196</v>
+        <v>464.8139275094608</v>
       </c>
       <c r="F32" t="n">
-        <v>49.04894055940719</v>
+        <v>464.8139275094608</v>
       </c>
       <c r="G32" t="n">
-        <v>49.04894055940719</v>
+        <v>58.0909543141201</v>
       </c>
       <c r="H32" t="n">
-        <v>49.04894055940719</v>
+        <v>58.0909543141201</v>
       </c>
       <c r="I32" t="n">
         <v>49.04894055940719</v>
@@ -6703,22 +6703,22 @@
         <v>470.0457237154926</v>
       </c>
       <c r="K32" t="n">
-        <v>631.8076127881163</v>
+        <v>1077.026363138157</v>
       </c>
       <c r="L32" t="n">
-        <v>847.4327536998624</v>
+        <v>1292.651504049903</v>
       </c>
       <c r="M32" t="n">
-        <v>1100.183391645783</v>
+        <v>1545.402141995824</v>
       </c>
       <c r="N32" t="n">
-        <v>1358.892391549753</v>
+        <v>1863.512826212077</v>
       </c>
       <c r="O32" t="n">
-        <v>1597.783183230322</v>
+        <v>2102.403617892645</v>
       </c>
       <c r="P32" t="n">
-        <v>1882.024003159881</v>
+        <v>2292.318476310334</v>
       </c>
       <c r="Q32" t="n">
         <v>2415.426663412022</v>
@@ -6739,13 +6739,13 @@
         <v>2452.44702797036</v>
       </c>
       <c r="W32" t="n">
-        <v>2452.44702797036</v>
+        <v>2068.686727105528</v>
       </c>
       <c r="X32" t="n">
-        <v>2452.44702797036</v>
+        <v>1668.043329274481</v>
       </c>
       <c r="Y32" t="n">
-        <v>2109.229268346981</v>
+        <v>1279.49903708089</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>49.04894055940719</v>
       </c>
       <c r="I33" t="n">
-        <v>49.04894055940719</v>
+        <v>64.91911609782825</v>
       </c>
       <c r="J33" t="n">
-        <v>97.54506861708839</v>
+        <v>357.0836481301427</v>
       </c>
       <c r="K33" t="n">
-        <v>212.0853798308893</v>
+        <v>471.6239593439437</v>
       </c>
       <c r="L33" t="n">
-        <v>786.1082846216478</v>
+        <v>644.3981720910847</v>
       </c>
       <c r="M33" t="n">
-        <v>1393.088924044312</v>
+        <v>853.8570607436229</v>
       </c>
       <c r="N33" t="n">
-        <v>1613.927067405985</v>
+        <v>1119.98719392523</v>
       </c>
       <c r="O33" t="n">
-        <v>1806.951807293139</v>
+        <v>1313.011933812384</v>
       </c>
       <c r="P33" t="n">
-        <v>1954.041286585722</v>
+        <v>1460.101413104967</v>
       </c>
       <c r="Q33" t="n">
-        <v>2032.149433631124</v>
+        <v>1944.179717154143</v>
       </c>
       <c r="R33" t="n">
         <v>2039.029719957319</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1102.434962850093</v>
+        <v>559.5422026879547</v>
       </c>
       <c r="C34" t="n">
-        <v>931.3415904118096</v>
+        <v>388.4488302496712</v>
       </c>
       <c r="D34" t="n">
-        <v>771.8469457347196</v>
+        <v>388.4488302496712</v>
       </c>
       <c r="E34" t="n">
-        <v>610.9361306030391</v>
+        <v>227.5380151179907</v>
       </c>
       <c r="F34" t="n">
-        <v>446.3050047136304</v>
+        <v>227.5380151179907</v>
       </c>
       <c r="G34" t="n">
-        <v>279.9541270789258</v>
+        <v>61.18713748328608</v>
       </c>
       <c r="H34" t="n">
-        <v>138.344164103268</v>
+        <v>61.18713748328608</v>
       </c>
       <c r="I34" t="n">
         <v>49.04894055940719</v>
       </c>
       <c r="J34" t="n">
-        <v>125.46153771129</v>
+        <v>125.4615377112901</v>
       </c>
       <c r="K34" t="n">
-        <v>382.4412809153944</v>
+        <v>382.4412809153943</v>
       </c>
       <c r="L34" t="n">
-        <v>773.4102084873516</v>
+        <v>773.4102084873515</v>
       </c>
       <c r="M34" t="n">
         <v>1200.871129180882</v>
       </c>
       <c r="N34" t="n">
-        <v>1616.620763281413</v>
+        <v>1616.620763281412</v>
       </c>
       <c r="O34" t="n">
         <v>2000.793381112742</v>
@@ -6882,28 +6882,28 @@
         <v>2452.44702797036</v>
       </c>
       <c r="R34" t="n">
-        <v>2407.619704854969</v>
+        <v>2452.44702797036</v>
       </c>
       <c r="S34" t="n">
-        <v>2236.904002771284</v>
+        <v>2281.731325886674</v>
       </c>
       <c r="T34" t="n">
-        <v>2236.904002771284</v>
+        <v>2046.025962469589</v>
       </c>
       <c r="U34" t="n">
-        <v>2236.904002771284</v>
+        <v>1763.276879385155</v>
       </c>
       <c r="V34" t="n">
-        <v>2032.283894486815</v>
+        <v>1489.391134324677</v>
       </c>
       <c r="W34" t="n">
-        <v>1753.214229995689</v>
+        <v>1210.321469833551</v>
       </c>
       <c r="X34" t="n">
-        <v>1514.870367855373</v>
+        <v>971.9776076932344</v>
       </c>
       <c r="Y34" t="n">
-        <v>1290.134669244138</v>
+        <v>747.2419090819991</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1680.755077375166</v>
+        <v>622.2749396246653</v>
       </c>
       <c r="C35" t="n">
-        <v>1680.755077375166</v>
+        <v>622.2749396246653</v>
       </c>
       <c r="D35" t="n">
-        <v>1276.291147468227</v>
+        <v>217.8110097177258</v>
       </c>
       <c r="E35" t="n">
-        <v>861.9509319851236</v>
+        <v>217.8110097177258</v>
       </c>
       <c r="F35" t="n">
-        <v>440.9205199388111</v>
+        <v>217.8110097177258</v>
       </c>
       <c r="G35" t="n">
-        <v>40.61185264077371</v>
+        <v>217.8110097177258</v>
       </c>
       <c r="H35" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="I35" t="n">
         <v>40.61185264077371</v>
       </c>
       <c r="J35" t="n">
-        <v>425.8160953700002</v>
+        <v>461.6086357968591</v>
       </c>
       <c r="K35" t="n">
-        <v>587.577984442624</v>
+        <v>623.3705248694829</v>
       </c>
       <c r="L35" t="n">
-        <v>803.2031253543699</v>
+        <v>838.9956657812288</v>
       </c>
       <c r="M35" t="n">
-        <v>1055.953763300291</v>
+        <v>1091.74630372715</v>
       </c>
       <c r="N35" t="n">
-        <v>1314.662763204261</v>
+        <v>1350.45530363112</v>
       </c>
       <c r="O35" t="n">
-        <v>1553.55355488483</v>
+        <v>1589.346095311688</v>
       </c>
       <c r="P35" t="n">
-        <v>1743.468413302518</v>
+        <v>1779.260953729377</v>
       </c>
       <c r="Q35" t="n">
-        <v>1866.576600404207</v>
+        <v>1902.369140831066</v>
       </c>
       <c r="R35" t="n">
         <v>2030.592632038686</v>
@@ -6970,19 +6970,19 @@
         <v>2030.592632038686</v>
       </c>
       <c r="U35" t="n">
-        <v>2030.592632038686</v>
+        <v>1773.692565171142</v>
       </c>
       <c r="V35" t="n">
-        <v>1680.755077375166</v>
+        <v>1423.855010507623</v>
       </c>
       <c r="W35" t="n">
-        <v>1680.755077375166</v>
+        <v>1423.855010507623</v>
       </c>
       <c r="X35" t="n">
-        <v>1680.755077375166</v>
+        <v>1023.211612676575</v>
       </c>
       <c r="Y35" t="n">
-        <v>1680.755077375166</v>
+        <v>622.2749396246653</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>687.258864967923</v>
+        <v>687.2588649679232</v>
       </c>
       <c r="C36" t="n">
-        <v>553.2637937168687</v>
+        <v>553.2637937168689</v>
       </c>
       <c r="D36" t="n">
-        <v>436.3666359362611</v>
+        <v>436.3666359362612</v>
       </c>
       <c r="E36" t="n">
-        <v>315.8738199285891</v>
+        <v>315.8738199285892</v>
       </c>
       <c r="F36" t="n">
-        <v>206.9139401110937</v>
+        <v>206.9139401110938</v>
       </c>
       <c r="G36" t="n">
         <v>100.9967633533972</v>
@@ -7013,25 +7013,25 @@
         <v>40.61185264077371</v>
       </c>
       <c r="I36" t="n">
-        <v>40.61185264077371</v>
+        <v>56.48202817919477</v>
       </c>
       <c r="J36" t="n">
-        <v>332.7763846730882</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K36" t="n">
-        <v>447.3166958868891</v>
+        <v>463.1868714253102</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0909086340301</v>
+        <v>635.9610841724513</v>
       </c>
       <c r="M36" t="n">
-        <v>1122.662585063605</v>
+        <v>845.4199728249894</v>
       </c>
       <c r="N36" t="n">
-        <v>1343.500728425278</v>
+        <v>1250.00778235036</v>
       </c>
       <c r="O36" t="n">
-        <v>1798.514719374506</v>
+        <v>1443.032522237515</v>
       </c>
       <c r="P36" t="n">
         <v>1945.604198667089</v>
@@ -7040,7 +7040,7 @@
         <v>2023.712345712491</v>
       </c>
       <c r="R36" t="n">
-        <v>2030.592632038685</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S36" t="n">
         <v>1942.531936429008</v>
@@ -7058,10 +7058,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X36" t="n">
-        <v>986.9638572396797</v>
+        <v>986.9638572396798</v>
       </c>
       <c r="Y36" t="n">
-        <v>827.5618976035097</v>
+        <v>827.5618976035098</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.709415277612</v>
+        <v>591.9224989690629</v>
       </c>
       <c r="C37" t="n">
-        <v>851.6160428393289</v>
+        <v>591.9224989690629</v>
       </c>
       <c r="D37" t="n">
-        <v>692.1213981622388</v>
+        <v>432.4278542919728</v>
       </c>
       <c r="E37" t="n">
-        <v>531.2105830305584</v>
+        <v>271.5170391602923</v>
       </c>
       <c r="F37" t="n">
-        <v>366.5794571411496</v>
+        <v>271.5170391602923</v>
       </c>
       <c r="G37" t="n">
         <v>271.5170391602923</v>
@@ -7095,52 +7095,52 @@
         <v>40.61185264077371</v>
       </c>
       <c r="J37" t="n">
-        <v>52.02308616132028</v>
+        <v>117.0244497926567</v>
       </c>
       <c r="K37" t="n">
-        <v>102.7226357797103</v>
+        <v>374.0041929967609</v>
       </c>
       <c r="L37" t="n">
-        <v>493.6915633516677</v>
+        <v>764.9731205687183</v>
       </c>
       <c r="M37" t="n">
-        <v>921.1524840451984</v>
+        <v>847.4676917479635</v>
       </c>
       <c r="N37" t="n">
-        <v>1336.902118145729</v>
+        <v>1263.217325848494</v>
       </c>
       <c r="O37" t="n">
-        <v>1721.074735977058</v>
+        <v>1647.389943679824</v>
       </c>
       <c r="P37" t="n">
-        <v>2017.515485446435</v>
+        <v>1959.692483739354</v>
       </c>
       <c r="Q37" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="R37" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S37" t="n">
-        <v>1815.04960683961</v>
+        <v>1901.676217162503</v>
       </c>
       <c r="T37" t="n">
-        <v>1579.344243422525</v>
+        <v>1665.970853745418</v>
       </c>
       <c r="U37" t="n">
-        <v>1296.59516033809</v>
+        <v>1383.221770660983</v>
       </c>
       <c r="V37" t="n">
-        <v>1022.709415277612</v>
+        <v>1109.336025600505</v>
       </c>
       <c r="W37" t="n">
-        <v>1022.709415277612</v>
+        <v>830.2663611093794</v>
       </c>
       <c r="X37" t="n">
-        <v>1022.709415277612</v>
+        <v>591.9224989690629</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.709415277612</v>
+        <v>591.9224989690629</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1620.371452374196</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="C38" t="n">
-        <v>1210.246861687466</v>
+        <v>1317.454753012698</v>
       </c>
       <c r="D38" t="n">
-        <v>805.7829317805267</v>
+        <v>912.9908231057589</v>
       </c>
       <c r="E38" t="n">
-        <v>805.7829317805267</v>
+        <v>498.6506076226556</v>
       </c>
       <c r="F38" t="n">
-        <v>384.7525197342143</v>
+        <v>77.62019557634312</v>
       </c>
       <c r="G38" t="n">
         <v>40.61185264077371</v>
@@ -7174,52 +7174,52 @@
         <v>40.61185264077371</v>
       </c>
       <c r="J38" t="n">
-        <v>461.6086357968591</v>
+        <v>425.8160953700002</v>
       </c>
       <c r="K38" t="n">
-        <v>623.3705248694829</v>
+        <v>587.577984442624</v>
       </c>
       <c r="L38" t="n">
-        <v>838.9956657812288</v>
+        <v>803.2031253543699</v>
       </c>
       <c r="M38" t="n">
-        <v>1091.74630372715</v>
+        <v>1055.953763300291</v>
       </c>
       <c r="N38" t="n">
-        <v>1350.45530363112</v>
+        <v>1314.662763204261</v>
       </c>
       <c r="O38" t="n">
-        <v>1589.346095311688</v>
+        <v>1553.55355488483</v>
       </c>
       <c r="P38" t="n">
-        <v>1870.464080378659</v>
+        <v>1743.468413302518</v>
       </c>
       <c r="Q38" t="n">
-        <v>1993.572267480348</v>
+        <v>1866.576600404207</v>
       </c>
       <c r="R38" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="S38" t="n">
-        <v>2030.592632038686</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="T38" t="n">
-        <v>2030.592632038686</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="U38" t="n">
-        <v>2030.592632038686</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="V38" t="n">
-        <v>2030.592632038686</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="W38" t="n">
-        <v>2030.592632038686</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="X38" t="n">
-        <v>2030.592632038686</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="Y38" t="n">
-        <v>2030.592632038686</v>
+        <v>1727.579343699428</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>687.2588649679232</v>
+        <v>687.258864967923</v>
       </c>
       <c r="C39" t="n">
-        <v>553.2637937168688</v>
+        <v>553.2637937168687</v>
       </c>
       <c r="D39" t="n">
-        <v>436.3666359362612</v>
+        <v>436.3666359362611</v>
       </c>
       <c r="E39" t="n">
         <v>315.8738199285891</v>
@@ -7253,22 +7253,22 @@
         <v>56.48202817919477</v>
       </c>
       <c r="J39" t="n">
-        <v>104.978156236876</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K39" t="n">
-        <v>219.518467450677</v>
+        <v>851.218236641084</v>
       </c>
       <c r="L39" t="n">
-        <v>722.0901438802516</v>
+        <v>1175.19294747314</v>
       </c>
       <c r="M39" t="n">
-        <v>931.5490325327899</v>
+        <v>1384.651836125678</v>
       </c>
       <c r="N39" t="n">
-        <v>1152.387175894463</v>
+        <v>1605.489979487352</v>
       </c>
       <c r="O39" t="n">
-        <v>1654.958852324038</v>
+        <v>1798.514719374506</v>
       </c>
       <c r="P39" t="n">
         <v>1945.604198667089</v>
@@ -7277,7 +7277,7 @@
         <v>2023.712345712491</v>
       </c>
       <c r="R39" t="n">
-        <v>2030.592632038686</v>
+        <v>2030.592632038685</v>
       </c>
       <c r="S39" t="n">
         <v>1942.531936429008</v>
@@ -7295,10 +7295,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X39" t="n">
-        <v>986.9638572396798</v>
+        <v>986.9638572396797</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.5618976035098</v>
+        <v>827.5618976035097</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.203819140545</v>
+        <v>325.3875131503252</v>
       </c>
       <c r="C40" t="n">
-        <v>513.203819140545</v>
+        <v>325.3875131503252</v>
       </c>
       <c r="D40" t="n">
-        <v>513.203819140545</v>
+        <v>325.3875131503252</v>
       </c>
       <c r="E40" t="n">
-        <v>513.203819140545</v>
+        <v>325.3875131503252</v>
       </c>
       <c r="F40" t="n">
-        <v>348.5726932511362</v>
+        <v>325.3875131503252</v>
       </c>
       <c r="G40" t="n">
-        <v>182.2218156164316</v>
+        <v>159.0366355156205</v>
       </c>
       <c r="H40" t="n">
         <v>40.61185264077371</v>
@@ -7332,52 +7332,52 @@
         <v>40.61185264077371</v>
       </c>
       <c r="J40" t="n">
-        <v>52.02308616132028</v>
+        <v>117.0244497926567</v>
       </c>
       <c r="K40" t="n">
-        <v>102.7226357797103</v>
+        <v>221.4843684568378</v>
       </c>
       <c r="L40" t="n">
-        <v>493.6915633516677</v>
+        <v>612.4532960287952</v>
       </c>
       <c r="M40" t="n">
-        <v>921.1524840451984</v>
+        <v>1039.914216722326</v>
       </c>
       <c r="N40" t="n">
-        <v>1336.902118145729</v>
+        <v>1455.663850822856</v>
       </c>
       <c r="O40" t="n">
-        <v>1721.074735977058</v>
+        <v>1839.836468654186</v>
       </c>
       <c r="P40" t="n">
-        <v>2017.515485446435</v>
+        <v>1891.241525240598</v>
       </c>
       <c r="Q40" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="R40" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S40" t="n">
-        <v>1815.04960683961</v>
+        <v>1859.876929955</v>
       </c>
       <c r="T40" t="n">
-        <v>1579.344243422525</v>
+        <v>1624.171566537915</v>
       </c>
       <c r="U40" t="n">
-        <v>1304.503090832465</v>
+        <v>1341.422483453481</v>
       </c>
       <c r="V40" t="n">
-        <v>1030.617345771987</v>
+        <v>1067.536738393003</v>
       </c>
       <c r="W40" t="n">
-        <v>751.5476812808615</v>
+        <v>788.467073901877</v>
       </c>
       <c r="X40" t="n">
-        <v>513.203819140545</v>
+        <v>550.1232117615605</v>
       </c>
       <c r="Y40" t="n">
-        <v>513.203819140545</v>
+        <v>325.3875131503252</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1317.358164034939</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="C41" t="n">
-        <v>907.233573348209</v>
+        <v>1696.211397027183</v>
       </c>
       <c r="D41" t="n">
-        <v>502.7696434412695</v>
+        <v>1291.747467120243</v>
       </c>
       <c r="E41" t="n">
-        <v>461.6422646870861</v>
+        <v>877.4072516371398</v>
       </c>
       <c r="F41" t="n">
-        <v>40.61185264077371</v>
+        <v>456.3768395908273</v>
       </c>
       <c r="G41" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="H41" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="I41" t="n">
         <v>40.61185264077371</v>
       </c>
       <c r="J41" t="n">
-        <v>461.6086357968591</v>
+        <v>134.83280890913</v>
       </c>
       <c r="K41" t="n">
-        <v>623.3705248694829</v>
+        <v>296.5946979817538</v>
       </c>
       <c r="L41" t="n">
-        <v>838.9956657812288</v>
+        <v>512.2198388934999</v>
       </c>
       <c r="M41" t="n">
-        <v>1091.74630372715</v>
+        <v>764.9704768394209</v>
       </c>
       <c r="N41" t="n">
-        <v>1350.45530363112</v>
+        <v>1062.194940952516</v>
       </c>
       <c r="O41" t="n">
-        <v>1589.346095311688</v>
+        <v>1301.085732633085</v>
       </c>
       <c r="P41" t="n">
-        <v>1779.260953729377</v>
+        <v>1491.000591050773</v>
       </c>
       <c r="Q41" t="n">
         <v>1993.572267480348</v>
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>687.258864967923</v>
+        <v>687.2588649679232</v>
       </c>
       <c r="C42" t="n">
-        <v>553.2637937168688</v>
+        <v>553.2637937168689</v>
       </c>
       <c r="D42" t="n">
         <v>436.3666359362612</v>
@@ -7487,28 +7487,28 @@
         <v>40.61185264077371</v>
       </c>
       <c r="I42" t="n">
-        <v>40.61185264077371</v>
+        <v>56.48202817919477</v>
       </c>
       <c r="J42" t="n">
-        <v>332.7763846730882</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K42" t="n">
-        <v>508.478861245244</v>
+        <v>463.1868714253102</v>
       </c>
       <c r="L42" t="n">
-        <v>681.253073992385</v>
+        <v>635.9610841724513</v>
       </c>
       <c r="M42" t="n">
-        <v>890.7119626449232</v>
+        <v>987.1351831062761</v>
       </c>
       <c r="N42" t="n">
-        <v>1111.550106006596</v>
+        <v>1207.973326467949</v>
       </c>
       <c r="O42" t="n">
-        <v>1304.574845893751</v>
+        <v>1710.545002897524</v>
       </c>
       <c r="P42" t="n">
-        <v>1451.664325186334</v>
+        <v>1857.634482190108</v>
       </c>
       <c r="Q42" t="n">
         <v>1935.742629235509</v>
@@ -7532,10 +7532,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X42" t="n">
-        <v>986.9638572396797</v>
+        <v>986.9638572396798</v>
       </c>
       <c r="Y42" t="n">
-        <v>827.5618976035097</v>
+        <v>827.5618976035098</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>885.2006752028883</v>
+        <v>879.8370319989583</v>
       </c>
       <c r="C43" t="n">
-        <v>714.1073027646048</v>
+        <v>708.7436595606748</v>
       </c>
       <c r="D43" t="n">
-        <v>554.6126580875148</v>
+        <v>674.1146342722254</v>
       </c>
       <c r="E43" t="n">
-        <v>554.6126580875148</v>
+        <v>513.203819140545</v>
       </c>
       <c r="F43" t="n">
-        <v>389.981532198106</v>
+        <v>348.5726932511362</v>
       </c>
       <c r="G43" t="n">
-        <v>223.6306545634014</v>
+        <v>182.2218156164316</v>
       </c>
       <c r="H43" t="n">
-        <v>129.9070761846345</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I43" t="n">
         <v>40.61185264077371</v>
@@ -7572,49 +7572,49 @@
         <v>52.02308616132028</v>
       </c>
       <c r="K43" t="n">
-        <v>102.7226357797103</v>
+        <v>309.0028293654245</v>
       </c>
       <c r="L43" t="n">
-        <v>477.8297727615146</v>
+        <v>612.4532960287952</v>
       </c>
       <c r="M43" t="n">
-        <v>905.2906934550454</v>
+        <v>1039.914216722326</v>
       </c>
       <c r="N43" t="n">
-        <v>1321.040327555575</v>
+        <v>1455.663850822856</v>
       </c>
       <c r="O43" t="n">
-        <v>1705.212945386905</v>
+        <v>1839.836468654186</v>
       </c>
       <c r="P43" t="n">
-        <v>2017.515485446435</v>
+        <v>1891.241525240598</v>
       </c>
       <c r="Q43" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="R43" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S43" t="n">
-        <v>1815.04960683961</v>
+        <v>1859.876929955</v>
       </c>
       <c r="T43" t="n">
-        <v>1815.04960683961</v>
+        <v>1624.171566537915</v>
       </c>
       <c r="U43" t="n">
-        <v>1815.04960683961</v>
+        <v>1341.422483453481</v>
       </c>
       <c r="V43" t="n">
-        <v>1815.04960683961</v>
+        <v>1067.536738393003</v>
       </c>
       <c r="W43" t="n">
-        <v>1535.979942348485</v>
+        <v>1067.536738393003</v>
       </c>
       <c r="X43" t="n">
-        <v>1297.636080208168</v>
+        <v>1067.536738393003</v>
       </c>
       <c r="Y43" t="n">
-        <v>1072.900381596933</v>
+        <v>1067.536738393003</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1680.755077375166</v>
+        <v>450.7364433275036</v>
       </c>
       <c r="C44" t="n">
-        <v>1680.755077375166</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="D44" t="n">
-        <v>1276.291147468227</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="E44" t="n">
-        <v>1167.778858633673</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="F44" t="n">
-        <v>746.7484465873601</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="G44" t="n">
-        <v>340.0254733920195</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="H44" t="n">
-        <v>49.65386639548662</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I44" t="n">
         <v>40.61185264077371</v>
       </c>
       <c r="J44" t="n">
-        <v>173.3482731182553</v>
+        <v>461.6086357968591</v>
       </c>
       <c r="K44" t="n">
-        <v>335.1101621908792</v>
+        <v>714.573651518765</v>
       </c>
       <c r="L44" t="n">
-        <v>550.7353031026252</v>
+        <v>930.1987924305109</v>
       </c>
       <c r="M44" t="n">
-        <v>803.4859410485462</v>
+        <v>1182.949430376432</v>
       </c>
       <c r="N44" t="n">
-        <v>1062.194940952516</v>
+        <v>1441.658430280402</v>
       </c>
       <c r="O44" t="n">
-        <v>1301.085732633085</v>
+        <v>1680.549221960971</v>
       </c>
       <c r="P44" t="n">
-        <v>1491.000591050773</v>
+        <v>1870.464080378659</v>
       </c>
       <c r="Q44" t="n">
         <v>1993.572267480348</v>
@@ -7684,16 +7684,16 @@
         <v>2030.592632038686</v>
       </c>
       <c r="V44" t="n">
-        <v>1680.755077375166</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="W44" t="n">
-        <v>1680.755077375166</v>
+        <v>1662.53769387495</v>
       </c>
       <c r="X44" t="n">
-        <v>1680.755077375166</v>
+        <v>1261.894296043903</v>
       </c>
       <c r="Y44" t="n">
-        <v>1680.755077375166</v>
+        <v>860.957622991993</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>56.48202817919477</v>
       </c>
       <c r="J45" t="n">
-        <v>348.6465602115093</v>
+        <v>151.3137221211892</v>
       </c>
       <c r="K45" t="n">
-        <v>463.1868714253102</v>
+        <v>265.8540333349902</v>
       </c>
       <c r="L45" t="n">
-        <v>965.7585478548849</v>
+        <v>438.6282460821311</v>
       </c>
       <c r="M45" t="n">
-        <v>1175.217436507423</v>
+        <v>941.1999225117058</v>
       </c>
       <c r="N45" t="n">
-        <v>1396.055579869096</v>
+        <v>1162.038065873379</v>
       </c>
       <c r="O45" t="n">
-        <v>1798.514719374506</v>
+        <v>1355.062805760533</v>
       </c>
       <c r="P45" t="n">
-        <v>1945.604198667089</v>
+        <v>1857.634482190108</v>
       </c>
       <c r="Q45" t="n">
-        <v>2023.712345712491</v>
+        <v>1935.742629235509</v>
       </c>
       <c r="R45" t="n">
         <v>2030.592632038686</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1093.99787493146</v>
+        <v>652.4628346644912</v>
       </c>
       <c r="C46" t="n">
-        <v>922.9045024931763</v>
+        <v>481.3694622262077</v>
       </c>
       <c r="D46" t="n">
-        <v>763.4098578160863</v>
+        <v>481.3694622262077</v>
       </c>
       <c r="E46" t="n">
-        <v>602.4990426844057</v>
+        <v>460.8890797087478</v>
       </c>
       <c r="F46" t="n">
-        <v>437.867916794997</v>
+        <v>296.2579538193391</v>
       </c>
       <c r="G46" t="n">
-        <v>271.5170391602923</v>
+        <v>129.9070761846345</v>
       </c>
       <c r="H46" t="n">
         <v>129.9070761846345</v>
@@ -7830,28 +7830,28 @@
         <v>2030.592632038686</v>
       </c>
       <c r="R46" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S46" t="n">
-        <v>1985.765308923296</v>
+        <v>1859.876929955</v>
       </c>
       <c r="T46" t="n">
-        <v>1985.765308923296</v>
+        <v>1859.876929955</v>
       </c>
       <c r="U46" t="n">
-        <v>1985.765308923296</v>
+        <v>1577.127846870565</v>
       </c>
       <c r="V46" t="n">
-        <v>1985.765308923296</v>
+        <v>1303.242101810087</v>
       </c>
       <c r="W46" t="n">
-        <v>1744.777142077056</v>
+        <v>1303.242101810087</v>
       </c>
       <c r="X46" t="n">
-        <v>1506.433279936739</v>
+        <v>1064.898239669771</v>
       </c>
       <c r="Y46" t="n">
-        <v>1281.697581325504</v>
+        <v>840.1625410585356</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.10046808443771</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>104.2622748139746</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>102.4366539134859</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
@@ -7996,13 +7996,13 @@
         <v>102.3362050822236</v>
       </c>
       <c r="P2" t="n">
-        <v>102.7957927373246</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>99.18023385559253</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>96.458572271164</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>60.14611555112977</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>64.97221224105589</v>
+        <v>64.60265953574515</v>
       </c>
       <c r="L3" t="n">
-        <v>65.26095326728954</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>66.71071319485792</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>66.89790845644049</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>65.83904796127921</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>68.1466285618459</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>51.43314568295542</v>
       </c>
       <c r="K4" t="n">
-        <v>61.02724631019659</v>
+        <v>61.39679901550731</v>
       </c>
       <c r="L4" t="n">
-        <v>54.62829389390151</v>
+        <v>63.40517064503127</v>
       </c>
       <c r="M4" t="n">
-        <v>65.41137195522053</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N4" t="n">
         <v>60.85907496485993</v>
       </c>
       <c r="O4" t="n">
-        <v>56.07489807299633</v>
+        <v>65.22132752943682</v>
       </c>
       <c r="P4" t="n">
-        <v>64.92627109634527</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q4" t="n">
         <v>61.35952565992557</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>82.47002078974843</v>
       </c>
       <c r="K5" t="n">
-        <v>97.91326642434689</v>
+        <v>98.28281912965761</v>
       </c>
       <c r="L5" t="n">
-        <v>104.6318275192853</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>102.4366539134859</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8233,13 +8233,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>102.4262400320139</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.18023385559253</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>96.458572271164</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>60.14611555112977</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>64.97221224105589</v>
       </c>
       <c r="L6" t="n">
-        <v>64.89140056197881</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>62.33982285019048</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>66.89790845644049</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>63.40606445924423</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>65.83904796127921</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>60.57957513939591</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K7" t="n">
         <v>52.25036955906683</v>
@@ -8382,16 +8382,16 @@
         <v>54.62829389390151</v>
       </c>
       <c r="M7" t="n">
-        <v>65.41137195522053</v>
+        <v>65.04181924990981</v>
       </c>
       <c r="N7" t="n">
-        <v>60.4895222595492</v>
+        <v>60.85907496485993</v>
       </c>
       <c r="O7" t="n">
         <v>56.07489807299633</v>
       </c>
       <c r="P7" t="n">
-        <v>55.77984163990478</v>
+        <v>64.92627109634527</v>
       </c>
       <c r="Q7" t="n">
         <v>70.50595511636605</v>
@@ -8455,19 +8455,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>98.28281912965761</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>104.2622748139746</v>
+        <v>104.6318275192853</v>
       </c>
       <c r="M8" t="n">
-        <v>102.4366539134859</v>
+        <v>102.0671012081752</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>102.3362050822236</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8537,22 +8537,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>65.26095326728954</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>62.33982285019048</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>66.52835575112975</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>65.46949525596848</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>68.1466285618459</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>51.43314568295542</v>
+        <v>60.57957513939591</v>
       </c>
       <c r="K10" t="n">
-        <v>61.39679901550731</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L10" t="n">
-        <v>63.40517064503127</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M10" t="n">
-        <v>65.41137195522053</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N10" t="n">
-        <v>51.71264550841944</v>
+        <v>60.4895222595492</v>
       </c>
       <c r="O10" t="n">
-        <v>56.07489807299633</v>
+        <v>65.22132752943682</v>
       </c>
       <c r="P10" t="n">
-        <v>55.77984163990478</v>
+        <v>64.92627109634527</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.50595511636605</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>293.9225115766369</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>92.12437035281033</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>391.9508739553271</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>39.78455042682546</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>143.1466770518048</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>312.6736732751724</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.0729264010013</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8859,16 +8859,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>126.1587747679383</v>
       </c>
       <c r="O13" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>247.5108008918838</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>92.12437035281022</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>92.12437035281039</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>391.950873955327</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>333.1287511943775</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>145.0059263136038</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>312.6736732751724</v>
       </c>
       <c r="P15" t="n">
-        <v>4.817091509288844</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
@@ -9096,16 +9096,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>318.2573327462026</v>
+        <v>236.0522756093789</v>
       </c>
       <c r="P16" t="n">
-        <v>247.5108008918838</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9175,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>27.5781835473374</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>266.3443280292989</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>92.12437035281062</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>61.77996500843977</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>45.74948466659984</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>301.1286067119901</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>236.0522756093789</v>
       </c>
       <c r="P19" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>293.9225115766366</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>293.9225115766369</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>61.77996500843977</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>333.1287511943775</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>122.6915991325998</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>317.1506174091142</v>
+        <v>163.0901885809091</v>
       </c>
       <c r="M22" t="n">
         <v>348.4508580952379</v>
@@ -9576,10 +9576,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>247.510800891884</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>381.4391591779613</v>
       </c>
       <c r="R23" t="n">
-        <v>95.2787490018892</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>390.042925314132</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>81.80790535468475</v>
+        <v>291.8791856510778</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>297.0768902257154</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>381.4391591779618</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>455.8203503269774</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>390.0429253141321</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>81.80790535468458</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>449.7159094444851</v>
+        <v>95.27874900188931</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>60.00170132553838</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>342.3023057410733</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>464.5365253839199</v>
+        <v>45.74948466659976</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>449.715909444485</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,16 +10360,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>60.00170132553853</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>95.27874900188937</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>405.3017091349673</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>401.5371219900261</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>45.74948466659981</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>293.9225115766366</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>92.12437035281043</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
@@ -10673,16 +10673,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>296.0735230071076</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>185.6057233976746</v>
       </c>
       <c r="O36" t="n">
-        <v>264.6356071334075</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>359.0729264010013</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>335.3881832803894</v>
@@ -10761,10 +10761,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>247.5108008918838</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>58.40707243139576</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>293.9225115766366</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>92.12437035281036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>391.950873955327</v>
       </c>
       <c r="L39" t="n">
-        <v>333.1287511943775</v>
+        <v>152.7277758433486</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>312.6736732751723</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>145.005926313604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>54.30340307655669</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>247.5108008918838</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>38.90450930214678</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>92.12437035281039</v>
+        <v>383.2964538665514</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11135,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>61.77996500843932</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>143.1466770518048</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>312.6736732751724</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11220,10 +11220,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>301.1286067119898</v>
+        <v>228.748131642865</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11235,10 +11235,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.90450930214686</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>92.12437035281022</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>383.2964538665514</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>46.80360190334668</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>333.1287511943775</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>296.0735230071076</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>211.5498986042981</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>359.0729264010013</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>165.1188420419311</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>33.83255243767772</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>161.3058964593566</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I13" t="n">
         <v>88.40227130842214</v>
@@ -23466,22 +23466,22 @@
         <v>44.3790498842362</v>
       </c>
       <c r="S13" t="n">
-        <v>73.92790653862744</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3483097829142</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9215922535905</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>368.1534903050166</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>88.68920227461291</v>
       </c>
       <c r="T14" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23560,10 +23560,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>97.88302928154701</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>175.7402070513309</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>233.3483097829142</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9215922535905</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>206.7092277312855</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23740,19 +23740,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>12.68460342026378</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T17" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>340.9728302294526</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>85.77504633172236</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I19" t="n">
         <v>88.40227130842214</v>
@@ -23940,10 +23940,10 @@
         <v>44.3790498842362</v>
       </c>
       <c r="S19" t="n">
-        <v>169.0085450628485</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>4.616303214992371</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>287.4678909265675</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>113.2510587444487</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>362.525499670694</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.1938633459013</v>
       </c>
       <c r="I22" t="n">
-        <v>47.35897257725778</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>5.769433290298849</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.6557434633873</v>
+        <v>151.5593637108564</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I23" t="n">
         <v>8.951593617165784</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V23" t="n">
-        <v>28.33322480777275</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9679996758746</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9215922535905</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>257.5422403069268</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -24457,7 +24457,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>287.4678909265675</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.2939531812519</v>
+        <v>123.6282757401342</v>
       </c>
       <c r="U26" t="n">
-        <v>201.3313652849346</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>169.0085450628485</v>
       </c>
       <c r="T28" t="n">
-        <v>166.5323678431638</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>64.02681342128696</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>287.4678909265675</v>
@@ -24733,16 +24733,16 @@
         <v>88.68920227461291</v>
       </c>
       <c r="T29" t="n">
-        <v>211.2939531812519</v>
+        <v>42.79924568108174</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>20.2443142245798</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>169.0085450628485</v>
       </c>
       <c r="T31" t="n">
-        <v>88.53369524407795</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9215922535905</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>101.9437244483604</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>287.4678909265675</v>
       </c>
       <c r="I32" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>57.14172429424639</v>
+        <v>12.26845704973596</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>76.38545635378205</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3483097829142</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9215922535905</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.57298040824909</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>6.350162838330219</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H35" t="n">
-        <v>287.4678909265675</v>
+        <v>120.9923190375507</v>
       </c>
       <c r="I35" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>211.2939531812519</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>70.57557505730882</v>
+        <v>164.6873688583576</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>41.38129433542767</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>61.95648304088115</v>
+        <v>366.0174839571736</v>
       </c>
       <c r="H38" t="n">
         <v>287.4678909265675</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.3310661988683</v>
@@ -25560,13 +25560,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>22.95332829980293</v>
       </c>
       <c r="I40" t="n">
         <v>88.40227130842214</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>7.82885118943098</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>374.9690775743392</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>369.4807083616307</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>287.4678909265675</v>
       </c>
       <c r="I41" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>123.6169631947542</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>47.40752075092199</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3483097829142</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9215922535905</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>302.7696473820635</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>254.3310661988683</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>15.5483090740853</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>139.0261282880784</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S46" t="n">
-        <v>169.0085450628485</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.3483097829142</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9215922535905</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>37.70068266843711</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>483318.7175790529</v>
+        <v>483318.717579053</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>483318.7175790532</v>
+        <v>483318.717579053</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>543999.4648676505</v>
+        <v>543999.4648676506</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>543999.4648676508</v>
+        <v>543999.4648676505</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>543999.4648676508</v>
+        <v>543999.4648676503</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>483318.7175790532</v>
+        <v>483318.7175790531</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>483318.7175790532</v>
+        <v>483318.7175790531</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>483318.7175790531</v>
+        <v>483318.7175790528</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>406771.9604796658</v>
+      </c>
+      <c r="C2" t="n">
         <v>406771.9604796657</v>
-      </c>
-      <c r="C2" t="n">
-        <v>406771.9604796658</v>
       </c>
       <c r="D2" t="n">
         <v>406771.9604796658</v>
       </c>
       <c r="E2" t="n">
-        <v>250914.1131221653</v>
+        <v>250914.1131221654</v>
       </c>
       <c r="F2" t="n">
         <v>250914.1131221654</v>
       </c>
       <c r="G2" t="n">
-        <v>250914.1131221654</v>
+        <v>250914.1131221653</v>
       </c>
       <c r="H2" t="n">
-        <v>250914.1131221654</v>
+        <v>250914.1131221653</v>
       </c>
       <c r="I2" t="n">
-        <v>277415.1961090713</v>
+        <v>277415.1961090714</v>
       </c>
       <c r="J2" t="n">
-        <v>277415.1961090713</v>
+        <v>277415.1961090714</v>
       </c>
       <c r="K2" t="n">
         <v>277415.1961090713</v>
       </c>
       <c r="L2" t="n">
-        <v>277415.1961090712</v>
+        <v>277415.1961090714</v>
       </c>
       <c r="M2" t="n">
         <v>250914.1131221653</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3065.178878730687</v>
+        <v>3065.178878730705</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28044.98570513665</v>
+        <v>28044.98570513667</v>
       </c>
       <c r="J3" t="n">
-        <v>2393.108388700933</v>
+        <v>2393.108388700826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>97946.67404144023</v>
+        <v>97946.67404144014</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343845.9222450325</v>
+        <v>343845.9222450326</v>
       </c>
       <c r="C4" t="n">
-        <v>343845.9222450325</v>
+        <v>343845.9222450326</v>
       </c>
       <c r="D4" t="n">
         <v>343845.9222450326</v>
       </c>
       <c r="E4" t="n">
+        <v>32113.52182853752</v>
+      </c>
+      <c r="F4" t="n">
         <v>32113.52182853751</v>
       </c>
-      <c r="F4" t="n">
-        <v>32113.52182853752</v>
-      </c>
       <c r="G4" t="n">
-        <v>32113.52182853753</v>
+        <v>32113.5218285375</v>
       </c>
       <c r="H4" t="n">
-        <v>32113.52182853752</v>
+        <v>32113.52182853751</v>
       </c>
       <c r="I4" t="n">
+        <v>45157.21373026531</v>
+      </c>
+      <c r="J4" t="n">
         <v>45157.21373026532</v>
-      </c>
-      <c r="J4" t="n">
-        <v>45157.21373026533</v>
       </c>
       <c r="K4" t="n">
         <v>45157.21373026533</v>
@@ -26453,10 +26453,10 @@
         <v>32113.52182853752</v>
       </c>
       <c r="N4" t="n">
-        <v>32113.52182853752</v>
+        <v>32113.52182853751</v>
       </c>
       <c r="O4" t="n">
-        <v>32113.52182853752</v>
+        <v>32113.5218285375</v>
       </c>
       <c r="P4" t="n">
         <v>32113.52182853751</v>
@@ -26493,10 +26493,10 @@
         <v>48042.75157478871</v>
       </c>
       <c r="J5" t="n">
-        <v>48042.75157478872</v>
+        <v>48042.75157478871</v>
       </c>
       <c r="K5" t="n">
-        <v>48042.75157478872</v>
+        <v>48042.75157478871</v>
       </c>
       <c r="L5" t="n">
         <v>48042.75157478871</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25677.15644495096</v>
+        <v>25675.42035654505</v>
       </c>
       <c r="C6" t="n">
-        <v>28742.33532368176</v>
+        <v>28740.59923527562</v>
       </c>
       <c r="D6" t="n">
-        <v>28742.33532368165</v>
+        <v>28740.59923527573</v>
       </c>
       <c r="E6" t="n">
-        <v>-368418.4385952974</v>
+        <v>-369043.6060731332</v>
       </c>
       <c r="F6" t="n">
-        <v>177170.0265370007</v>
+        <v>176544.8590591647</v>
       </c>
       <c r="G6" t="n">
-        <v>177170.0265370006</v>
+        <v>176544.8590591647</v>
       </c>
       <c r="H6" t="n">
-        <v>177170.0265370006</v>
+        <v>176544.8590591646</v>
       </c>
       <c r="I6" t="n">
-        <v>156170.2450988806</v>
+        <v>155651.0819529924</v>
       </c>
       <c r="J6" t="n">
-        <v>181822.1224153163</v>
+        <v>181302.9592694282</v>
       </c>
       <c r="K6" t="n">
-        <v>184215.2308040173</v>
+        <v>183696.067658129</v>
       </c>
       <c r="L6" t="n">
-        <v>184215.2308040172</v>
+        <v>183696.0676581291</v>
       </c>
       <c r="M6" t="n">
-        <v>79223.35249556031</v>
+        <v>78598.18501772451</v>
       </c>
       <c r="N6" t="n">
-        <v>177170.0265370006</v>
+        <v>176544.8590591646</v>
       </c>
       <c r="O6" t="n">
-        <v>177170.0265370006</v>
+        <v>176544.8590591647</v>
       </c>
       <c r="P6" t="n">
-        <v>177170.0265370006</v>
+        <v>176544.8590591647</v>
       </c>
     </row>
   </sheetData>
@@ -26798,25 +26798,25 @@
         <v>9.146429456440488</v>
       </c>
       <c r="E4" t="n">
-        <v>507.6481580096714</v>
+        <v>507.6481580096715</v>
       </c>
       <c r="F4" t="n">
         <v>507.6481580096714</v>
       </c>
       <c r="G4" t="n">
-        <v>507.6481580096715</v>
+        <v>507.6481580096714</v>
       </c>
       <c r="H4" t="n">
-        <v>507.6481580096715</v>
+        <v>507.6481580096714</v>
       </c>
       <c r="I4" t="n">
         <v>613.1117569925899</v>
       </c>
       <c r="J4" t="n">
-        <v>613.11175699259</v>
+        <v>613.1117569925899</v>
       </c>
       <c r="K4" t="n">
-        <v>613.11175699259</v>
+        <v>613.1117569925899</v>
       </c>
       <c r="L4" t="n">
         <v>613.1117569925899</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>105.4635989829184</v>
+        <v>105.4635989829185</v>
       </c>
       <c r="J4" t="n">
-        <v>9.146429456440558</v>
+        <v>9.146429456440147</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>393.0381295703128</v>
+        <v>393.0381295703124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27466,13 +27466,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>111.2317127823625</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>98.72385156287997</v>
       </c>
       <c r="G3" t="n">
-        <v>97.8640364935719</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
         <v>60.89331137820062</v>
@@ -27526,7 +27526,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>148.6615105833678</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -27542,22 +27542,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>149.8435231650863</v>
       </c>
       <c r="E4" t="n">
-        <v>150.1552775239232</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8383851740741</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>157.5217120984792</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>106.0361559802766</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>175.3814209824483</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>270.8237365228966</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -27605,7 +27605,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>213.3419121686824</v>
       </c>
     </row>
     <row r="5">
@@ -27703,10 +27703,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>111.2317127823625</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>98.72385156287997</v>
       </c>
       <c r="G6" t="n">
         <v>105.9202115588047</v>
@@ -27715,7 +27715,7 @@
         <v>60.89331137820062</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>11.39467600952174</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>97.76368033039377</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>148.6020157184214</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>187.3211276879307</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -27785,7 +27785,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>153.8383851740741</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27794,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>106.0361559802766</v>
+        <v>107.1264103714843</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>271.9139909141043</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>262.0004581534328</v>
       </c>
       <c r="W7" t="n">
-        <v>267.1325383897739</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>226.8139940624729</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>129.7535728527903</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6551205385437</v>
+        <v>123.5086910821033</v>
       </c>
       <c r="D9" t="n">
         <v>115.7281862028015</v>
@@ -27952,7 +27952,7 @@
         <v>60.89331137820062</v>
       </c>
       <c r="I9" t="n">
-        <v>11.39467600952174</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27985,10 +27985,10 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>148.6020157184214</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>187.3211276879307</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -28000,7 +28000,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>149.7517649745755</v>
       </c>
     </row>
     <row r="10">
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>75.27356168491386</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>175.3814209824483</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>229.0970765678321</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>263.0907125446405</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>226.8139940624729</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>213.3419121686824</v>
       </c>
     </row>
     <row r="11">
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>8.776876751129763</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,13 +34716,13 @@
         <v>9.146429456440488</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>8.776876751129763</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>9.146429456440488</v>
+      </c>
+      <c r="L4" t="n">
         <v>8.776876751129763</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="P4" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K5" t="n">
-        <v>8.776876751129763</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.776876751129761</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="M5" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L6" t="n">
-        <v>8.776876751129763</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="N7" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.776876751129761</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>9.146429456440488</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>8.776876751129763</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.776876751129761</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>9.146429456440488</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="O10" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="L10" t="n">
-        <v>8.776876751129763</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>425.2492759152378</v>
+        <v>389.0951946759866</v>
       </c>
       <c r="K11" t="n">
         <v>163.3958475481049</v>
@@ -35421,7 +35421,7 @@
         <v>255.3036746928495</v>
       </c>
       <c r="N11" t="n">
-        <v>353.4465924780325</v>
+        <v>261.3222221252221</v>
       </c>
       <c r="O11" t="n">
         <v>241.3038299803725</v>
@@ -35433,7 +35433,7 @@
         <v>124.35170414312</v>
       </c>
       <c r="R11" t="n">
-        <v>37.39430763468438</v>
+        <v>165.6727592267461</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>16.03048034183946</v>
       </c>
       <c r="J12" t="n">
-        <v>295.1156889215298</v>
+        <v>48.98598793705172</v>
       </c>
       <c r="K12" t="n">
-        <v>115.6972840543444</v>
+        <v>507.6481580096715</v>
       </c>
       <c r="L12" t="n">
-        <v>174.5194068152939</v>
+        <v>214.3039572421194</v>
       </c>
       <c r="M12" t="n">
         <v>211.5746350025638</v>
       </c>
       <c r="N12" t="n">
-        <v>366.2155087302626</v>
+        <v>223.0688316784579</v>
       </c>
       <c r="O12" t="n">
-        <v>507.6481580096714</v>
+        <v>194.9744847344991</v>
       </c>
       <c r="P12" t="n">
-        <v>148.5752316086701</v>
+        <v>507.6481580096715</v>
       </c>
       <c r="Q12" t="n">
         <v>78.8971182276785</v>
       </c>
       <c r="R12" t="n">
-        <v>95.80808363957189</v>
+        <v>6.949784167873666</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.52649850560259</v>
+        <v>77.18444156755854</v>
       </c>
       <c r="K13" t="n">
         <v>51.21166628120207</v>
@@ -35579,16 +35579,16 @@
         <v>431.7787077712432</v>
       </c>
       <c r="N13" t="n">
-        <v>419.9491253540708</v>
+        <v>210.7197168416197</v>
       </c>
       <c r="O13" t="n">
         <v>388.0531493245757</v>
       </c>
       <c r="P13" t="n">
-        <v>299.4351004741181</v>
+        <v>315.4571111712424</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.20923898207107</v>
+        <v>140.7586937354419</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>425.2492759152378</v>
       </c>
       <c r="K14" t="n">
-        <v>163.3958475481049</v>
+        <v>255.5202179009151</v>
       </c>
       <c r="L14" t="n">
         <v>217.8031726381273</v>
@@ -35667,7 +35667,7 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.4760744959304</v>
+        <v>124.35170414312</v>
       </c>
       <c r="R14" t="n">
         <v>37.39430763468438</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J15" t="n">
         <v>48.98598793705172</v>
       </c>
       <c r="K15" t="n">
+        <v>115.6972840543444</v>
+      </c>
+      <c r="L15" t="n">
         <v>507.6481580096714</v>
       </c>
-      <c r="L15" t="n">
-        <v>174.5194068152939</v>
-      </c>
       <c r="M15" t="n">
-        <v>211.5746350025638</v>
+        <v>356.5805613161676</v>
       </c>
       <c r="N15" t="n">
         <v>223.0688316784579</v>
       </c>
       <c r="O15" t="n">
-        <v>194.9744847344991</v>
+        <v>507.6481580096714</v>
       </c>
       <c r="P15" t="n">
-        <v>153.3923231179589</v>
+        <v>148.5752316086701</v>
       </c>
       <c r="Q15" t="n">
-        <v>488.967983888056</v>
+        <v>78.8971182276785</v>
       </c>
       <c r="R15" t="n">
         <v>6.949784167873666</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.52649850560259</v>
+        <v>77.18444156755854</v>
       </c>
       <c r="K16" t="n">
-        <v>51.21166628120207</v>
+        <v>259.5754981859639</v>
       </c>
       <c r="L16" t="n">
         <v>394.9181086585428</v>
@@ -35816,16 +35816,16 @@
         <v>431.7787077712432</v>
       </c>
       <c r="N16" t="n">
-        <v>419.9491253540708</v>
+        <v>84.56094207368135</v>
       </c>
       <c r="O16" t="n">
-        <v>388.0531493245757</v>
+        <v>305.8480921877521</v>
       </c>
       <c r="P16" t="n">
-        <v>299.4351004741181</v>
+        <v>315.4571111712424</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.20923898207107</v>
+        <v>140.7586937354419</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>425.2492759152378</v>
+        <v>95.17268309934974</v>
       </c>
       <c r="K17" t="n">
         <v>163.3958475481049</v>
@@ -35895,19 +35895,19 @@
         <v>255.3036746928495</v>
       </c>
       <c r="N17" t="n">
-        <v>261.3222221252221</v>
+        <v>288.9004056725595</v>
       </c>
       <c r="O17" t="n">
-        <v>241.3038299803725</v>
+        <v>507.6481580096714</v>
       </c>
       <c r="P17" t="n">
         <v>191.8331903208974</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.4760744959306</v>
+        <v>124.35170414312</v>
       </c>
       <c r="R17" t="n">
-        <v>37.39430763468438</v>
+        <v>165.6727592267461</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J18" t="n">
         <v>295.1156889215298</v>
       </c>
       <c r="K18" t="n">
-        <v>177.4772490627842</v>
+        <v>115.6972840543444</v>
       </c>
       <c r="L18" t="n">
         <v>174.5194068152939</v>
@@ -35977,7 +35977,7 @@
         <v>223.0688316784579</v>
       </c>
       <c r="O18" t="n">
-        <v>194.9744847344991</v>
+        <v>240.7239694010989</v>
       </c>
       <c r="P18" t="n">
         <v>148.5752316086701</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.52649850560259</v>
+        <v>77.18444156755854</v>
       </c>
       <c r="K19" t="n">
-        <v>51.21166628120207</v>
+        <v>259.5754981859639</v>
       </c>
       <c r="L19" t="n">
-        <v>378.8960979614187</v>
+        <v>394.9181086585428</v>
       </c>
       <c r="M19" t="n">
         <v>431.7787077712432</v>
       </c>
       <c r="N19" t="n">
-        <v>419.9491253540708</v>
+        <v>84.56094207368135</v>
       </c>
       <c r="O19" t="n">
-        <v>388.0531493245757</v>
+        <v>305.8480921877521</v>
       </c>
       <c r="P19" t="n">
         <v>315.4571111712424</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.20923898207107</v>
+        <v>140.7586937354419</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.17268309934974</v>
+        <v>389.0951946759864</v>
       </c>
       <c r="K20" t="n">
         <v>163.3958475481049</v>
@@ -36138,7 +36138,7 @@
         <v>241.3038299803725</v>
       </c>
       <c r="P20" t="n">
-        <v>485.7557018975343</v>
+        <v>191.8331903208974</v>
       </c>
       <c r="Q20" t="n">
         <v>124.35170414312</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J21" t="n">
         <v>295.1156889215298</v>
       </c>
       <c r="K21" t="n">
-        <v>177.4772490627842</v>
+        <v>115.6972840543444</v>
       </c>
       <c r="L21" t="n">
-        <v>174.5194068152939</v>
+        <v>507.6481580096714</v>
       </c>
       <c r="M21" t="n">
-        <v>211.5746350025638</v>
+        <v>334.2662341351636</v>
       </c>
       <c r="N21" t="n">
         <v>223.0688316784579</v>
@@ -36220,7 +36220,7 @@
         <v>148.5752316086701</v>
       </c>
       <c r="Q21" t="n">
-        <v>488.967983888056</v>
+        <v>78.8971182276785</v>
       </c>
       <c r="R21" t="n">
         <v>95.80808363957189</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.52649850560259</v>
+        <v>77.18444156755854</v>
       </c>
       <c r="K22" t="n">
-        <v>51.21166628120207</v>
+        <v>259.5754981859639</v>
       </c>
       <c r="L22" t="n">
-        <v>394.9181086585428</v>
+        <v>240.8576798303376</v>
       </c>
       <c r="M22" t="n">
         <v>431.7787077712432</v>
@@ -36296,10 +36296,10 @@
         <v>388.0531493245757</v>
       </c>
       <c r="P22" t="n">
-        <v>299.4351004741183</v>
+        <v>51.92429958223428</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.20923898207107</v>
+        <v>140.7586937354419</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36378,10 +36378,10 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q23" t="n">
-        <v>538.7905659112539</v>
+        <v>505.7908633210813</v>
       </c>
       <c r="R23" t="n">
-        <v>132.6730566365736</v>
+        <v>165.6727592267461</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J24" t="n">
-        <v>295.1156889215298</v>
+        <v>48.98598793705172</v>
       </c>
       <c r="K24" t="n">
         <v>115.6972840543444</v>
@@ -36448,16 +36448,16 @@
         <v>211.5746350025638</v>
       </c>
       <c r="N24" t="n">
-        <v>613.1117569925899</v>
+        <v>223.0688316784579</v>
       </c>
       <c r="O24" t="n">
         <v>194.9744847344991</v>
       </c>
       <c r="P24" t="n">
-        <v>230.3831369633548</v>
+        <v>440.4544172597479</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R24" t="n">
         <v>95.80808363957189</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>425.2492759152378</v>
+        <v>95.17268309934974</v>
       </c>
       <c r="K26" t="n">
         <v>163.3958475481049</v>
@@ -36609,13 +36609,13 @@
         <v>261.3222221252221</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3038299803725</v>
+        <v>538.3807202060879</v>
       </c>
       <c r="P26" t="n">
         <v>191.8331903208974</v>
       </c>
       <c r="Q26" t="n">
-        <v>505.7908633210818</v>
+        <v>538.7905659112539</v>
       </c>
       <c r="R26" t="n">
         <v>165.6727592267461</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J27" t="n">
         <v>295.1156889215298</v>
       </c>
       <c r="K27" t="n">
-        <v>115.6972840543444</v>
+        <v>571.5176343813218</v>
       </c>
       <c r="L27" t="n">
         <v>174.5194068152939</v>
@@ -36685,10 +36685,10 @@
         <v>211.5746350025638</v>
       </c>
       <c r="N27" t="n">
-        <v>613.11175699259</v>
+        <v>223.0688316784579</v>
       </c>
       <c r="O27" t="n">
-        <v>276.7823900891837</v>
+        <v>194.9744847344991</v>
       </c>
       <c r="P27" t="n">
         <v>148.5752316086701</v>
@@ -36834,7 +36834,7 @@
         <v>425.2492759152378</v>
       </c>
       <c r="K29" t="n">
-        <v>613.11175699259</v>
+        <v>258.6745965499942</v>
       </c>
       <c r="L29" t="n">
         <v>217.8031726381273</v>
@@ -36852,10 +36852,10 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.35170414312</v>
+        <v>538.7905659112539</v>
       </c>
       <c r="R29" t="n">
-        <v>97.39600896022276</v>
+        <v>37.39430763468438</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J30" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K30" t="n">
         <v>115.6972840543444</v>
       </c>
       <c r="L30" t="n">
-        <v>516.8217125563672</v>
+        <v>174.5194068152939</v>
       </c>
       <c r="M30" t="n">
         <v>211.5746350025638</v>
@@ -36928,13 +36928,13 @@
         <v>194.9744847344991</v>
       </c>
       <c r="P30" t="n">
-        <v>613.11175699259</v>
+        <v>194.3247162752699</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R30" t="n">
-        <v>6.949784167873666</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>425.2492759152378</v>
       </c>
       <c r="K32" t="n">
-        <v>163.3958475481049</v>
+        <v>613.1117569925899</v>
       </c>
       <c r="L32" t="n">
         <v>217.8031726381273</v>
@@ -37080,16 +37080,16 @@
         <v>255.3036746928495</v>
       </c>
       <c r="N32" t="n">
-        <v>261.3222221252221</v>
+        <v>321.3239234507607</v>
       </c>
       <c r="O32" t="n">
         <v>241.3038299803725</v>
       </c>
       <c r="P32" t="n">
-        <v>287.1119393227868</v>
+        <v>191.8331903208974</v>
       </c>
       <c r="Q32" t="n">
-        <v>538.7905659112539</v>
+        <v>124.35170414312</v>
       </c>
       <c r="R32" t="n">
         <v>37.39430763468438</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J33" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K33" t="n">
         <v>115.6972840543444</v>
       </c>
       <c r="L33" t="n">
-        <v>579.8211159502612</v>
+        <v>174.5194068152939</v>
       </c>
       <c r="M33" t="n">
-        <v>613.1117569925899</v>
+        <v>211.5746350025638</v>
       </c>
       <c r="N33" t="n">
-        <v>223.0688316784579</v>
+        <v>268.8183163450577</v>
       </c>
       <c r="O33" t="n">
         <v>194.9744847344991</v>
@@ -37168,10 +37168,10 @@
         <v>148.5752316086701</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R33" t="n">
-        <v>6.949784167873666</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>389.0951946759864</v>
+        <v>425.2492759152378</v>
       </c>
       <c r="K35" t="n">
         <v>163.3958475481049</v>
@@ -37329,7 +37329,7 @@
         <v>124.35170414312</v>
       </c>
       <c r="R35" t="n">
-        <v>165.6727592267461</v>
+        <v>129.5186779874948</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J36" t="n">
         <v>295.1156889215298</v>
@@ -37393,16 +37393,16 @@
         <v>174.5194068152939</v>
       </c>
       <c r="M36" t="n">
+        <v>211.5746350025638</v>
+      </c>
+      <c r="N36" t="n">
+        <v>408.6745550761324</v>
+      </c>
+      <c r="O36" t="n">
+        <v>194.9744847344991</v>
+      </c>
+      <c r="P36" t="n">
         <v>507.6481580096714</v>
-      </c>
-      <c r="N36" t="n">
-        <v>223.0688316784579</v>
-      </c>
-      <c r="O36" t="n">
-        <v>459.6100918679065</v>
-      </c>
-      <c r="P36" t="n">
-        <v>148.5752316086701</v>
       </c>
       <c r="Q36" t="n">
         <v>78.8971182276785</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.52649850560259</v>
+        <v>77.18444156755854</v>
       </c>
       <c r="K37" t="n">
-        <v>51.21166628120207</v>
+        <v>259.5754981859639</v>
       </c>
       <c r="L37" t="n">
         <v>394.9181086585428</v>
       </c>
       <c r="M37" t="n">
-        <v>431.7787077712432</v>
+        <v>83.32784967600531</v>
       </c>
       <c r="N37" t="n">
         <v>419.9491253540708</v>
@@ -37481,10 +37481,10 @@
         <v>388.0531493245757</v>
       </c>
       <c r="P37" t="n">
-        <v>299.4351004741181</v>
+        <v>315.4571111712424</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.20923898207107</v>
+        <v>71.61631141346683</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>425.2492759152378</v>
+        <v>389.0951946759864</v>
       </c>
       <c r="K38" t="n">
         <v>163.3958475481049</v>
@@ -37560,13 +37560,13 @@
         <v>241.3038299803725</v>
       </c>
       <c r="P38" t="n">
-        <v>283.9575606737078</v>
+        <v>191.8331903208974</v>
       </c>
       <c r="Q38" t="n">
         <v>124.35170414312</v>
       </c>
       <c r="R38" t="n">
-        <v>37.39430763468438</v>
+        <v>165.6727592267461</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>16.03048034183946</v>
       </c>
       <c r="J39" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K39" t="n">
-        <v>115.6972840543444</v>
+        <v>507.6481580096714</v>
       </c>
       <c r="L39" t="n">
-        <v>507.6481580096714</v>
+        <v>327.2471826586425</v>
       </c>
       <c r="M39" t="n">
         <v>211.5746350025638</v>
@@ -37636,10 +37636,10 @@
         <v>223.0688316784579</v>
       </c>
       <c r="O39" t="n">
-        <v>507.6481580096714</v>
+        <v>194.9744847344991</v>
       </c>
       <c r="P39" t="n">
-        <v>293.5811579222741</v>
+        <v>148.5752316086701</v>
       </c>
       <c r="Q39" t="n">
         <v>78.8971182276785</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.52649850560259</v>
+        <v>77.18444156755854</v>
       </c>
       <c r="K40" t="n">
-        <v>51.21166628120207</v>
+        <v>105.5150693577588</v>
       </c>
       <c r="L40" t="n">
         <v>394.9181086585428</v>
@@ -37718,10 +37718,10 @@
         <v>388.0531493245757</v>
       </c>
       <c r="P40" t="n">
-        <v>299.4351004741181</v>
+        <v>51.92429958223428</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.20923898207107</v>
+        <v>140.7586937354419</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>425.2492759152378</v>
+        <v>95.17268309934974</v>
       </c>
       <c r="K41" t="n">
         <v>163.3958475481049</v>
@@ -37791,7 +37791,7 @@
         <v>255.3036746928495</v>
       </c>
       <c r="N41" t="n">
-        <v>261.3222221252221</v>
+        <v>300.2267314273689</v>
       </c>
       <c r="O41" t="n">
         <v>241.3038299803725</v>
@@ -37800,7 +37800,7 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.4760744959304</v>
+        <v>507.6481580096714</v>
       </c>
       <c r="R41" t="n">
         <v>37.39430763468438</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J42" t="n">
         <v>295.1156889215298</v>
       </c>
       <c r="K42" t="n">
-        <v>177.4772490627837</v>
+        <v>115.6972840543444</v>
       </c>
       <c r="L42" t="n">
         <v>174.5194068152939</v>
       </c>
       <c r="M42" t="n">
-        <v>211.5746350025638</v>
+        <v>354.7213120543686</v>
       </c>
       <c r="N42" t="n">
         <v>223.0688316784579</v>
       </c>
       <c r="O42" t="n">
-        <v>194.9744847344991</v>
+        <v>507.6481580096714</v>
       </c>
       <c r="P42" t="n">
         <v>148.5752316086701</v>
       </c>
       <c r="Q42" t="n">
-        <v>488.967983888056</v>
+        <v>78.8971182276785</v>
       </c>
       <c r="R42" t="n">
         <v>95.80808363957189</v>
@@ -37940,10 +37940,10 @@
         <v>11.52649850560259</v>
       </c>
       <c r="K43" t="n">
-        <v>51.21166628120207</v>
+        <v>259.5754981859639</v>
       </c>
       <c r="L43" t="n">
-        <v>378.8960979614184</v>
+        <v>306.5156228922936</v>
       </c>
       <c r="M43" t="n">
         <v>431.7787077712432</v>
@@ -37955,10 +37955,10 @@
         <v>388.0531493245757</v>
       </c>
       <c r="P43" t="n">
-        <v>315.4571111712424</v>
+        <v>51.92429958223428</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.20923898207107</v>
+        <v>140.7586937354419</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>134.0771924014966</v>
+        <v>425.2492759152378</v>
       </c>
       <c r="K44" t="n">
-        <v>163.3958475481049</v>
+        <v>255.5202179009151</v>
       </c>
       <c r="L44" t="n">
         <v>217.8031726381273</v>
@@ -38037,7 +38037,7 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q44" t="n">
-        <v>507.6481580096714</v>
+        <v>124.35170414312</v>
       </c>
       <c r="R44" t="n">
         <v>37.39430763468438</v>
@@ -38095,31 +38095,31 @@
         <v>16.03048034183946</v>
       </c>
       <c r="J45" t="n">
-        <v>295.1156889215298</v>
+        <v>95.78958984039841</v>
       </c>
       <c r="K45" t="n">
         <v>115.6972840543444</v>
       </c>
       <c r="L45" t="n">
+        <v>174.5194068152939</v>
+      </c>
+      <c r="M45" t="n">
         <v>507.6481580096714</v>
-      </c>
-      <c r="M45" t="n">
-        <v>211.5746350025638</v>
       </c>
       <c r="N45" t="n">
         <v>223.0688316784579</v>
       </c>
       <c r="O45" t="n">
-        <v>406.5243833387972</v>
+        <v>194.9744847344991</v>
       </c>
       <c r="P45" t="n">
-        <v>148.5752316086701</v>
+        <v>507.6481580096714</v>
       </c>
       <c r="Q45" t="n">
         <v>78.8971182276785</v>
       </c>
       <c r="R45" t="n">
-        <v>6.949784167873666</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
